--- a/mobi_client/mobi_client/mobi_config/excel/AVGScripts/后续引导AVG/战斗引导_主线序章1.xlsx
+++ b/mobi_client/mobi_client/mobi_config/excel/AVGScripts/后续引导AVG/战斗引导_主线序章1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="11970" activeTab="1"/>
+    <workbookView windowWidth="28125" windowHeight="11970"/>
   </bookViews>
   <sheets>
     <sheet name="Intro_C0_battle01" sheetId="12" r:id="rId1"/>
@@ -16,8 +16,8 @@
     <externalReference r:id="rId5"/>
   </externalReferences>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Intro_C0_battle01!$A$1:$J$23</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Intro_C0_battle01_2!$A$1:$J$24</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Intro_C0_battle01!$A$1:$J$28</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Intro_C0_battle01_2!$A$1:$J$29</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
@@ -138,7 +138,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="72">
   <si>
     <t>说明</t>
   </si>
@@ -242,13 +242,24 @@
     <t>pos=中</t>
   </si>
   <si>
-    <t>涂凌_思考_动作_循环_01</t>
+    <t>涂凌_紧张_动作_循环_01</t>
   </si>
   <si>
-    <t>确定为二级危险系数，已调取『1-198电桩少女』。</t>
+    <t>确定为
+二级危险系数!</t>
   </si>
   <si>
-    <t>type=2,offx=0,offy=0.3,bubbleFliX=1,bubbleStyle=4,recall=1,scale=0.25</t>
+    <t>type=0</t>
+  </si>
+  <si>
+    <t>调取
+『1-198电桩少女』!</t>
+  </si>
+  <si>
+    <t>播放视频</t>
+  </si>
+  <si>
+    <t>c0_corridor_tulinggacha</t>
   </si>
   <si>
     <t>跳转-标签</t>
@@ -260,64 +271,58 @@
     <t>召唤电桩少女</t>
   </si>
   <si>
+    <t>角色表情</t>
+  </si>
+  <si>
+    <t>涂凌_待机_上脸_开始_01;涂凌_待机_下嘴_开始_01</t>
+  </si>
+  <si>
     <t>wo</t>
   </si>
   <si>
     <t xml:space="preserve">这个全身长满电源插头的女孩子……
-也是异质物？？
+也是异质物？？{#涂凌待机动作}
 </t>
   </si>
   <si>
-    <t>长得这么可爱，真的是对面那个电视机头的对手吗？？</t>
-  </si>
-  <si>
-    <t>连接（滋滋——）……需要（滋—）……身体的连接（滋滋—）……需要身体的能量（滋）……</t>
-  </si>
-  <si>
-    <t>type=1</t>
-  </si>
-  <si>
-    <t>角色表情</t>
+    <t>长得这么可爱，真的是{#涂凌紧张动作}对面那个电视机头的对手吗？？</t>
   </si>
   <si>
     <t>涂凌_紧张_上脸_开始_01;涂凌_紧张_下嘴_开始_01</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>&lt;color=#DADADA&gt;&lt;size=80&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>糟糕，刚才弄丢了『稳定剂』，得尽快结束战斗。……&lt;/size&gt;&lt;/color&gt;</t>
-    </r>
+    <t>连接（滋滋——）……{0.2}{#涂凌惊讶动作}需要（滋—）……身体的连接（滋滋—）……需要身体的能量（滋）……</t>
   </si>
   <si>
-    <t>就用这一击来解决它。</t>
+    <t>name=电桩少女</t>
+  </si>
+  <si>
+    <t>糟糕!
+刚才弄丢了『稳定剂』……</t>
+  </si>
+  <si>
+    <t>得尽快结束战斗!</t>
   </si>
   <si>
     <t>移除角色</t>
   </si>
   <si>
-    <t>哇啊啊！电光炮！！好帅！</t>
+    <t>涂凌_开心_动作_循环_01</t>
   </si>
   <si>
-    <t>呼呼，搞定。</t>
+    <t>{#涂凌开心表情}哇啊啊！电光炮！！好帅！</t>
+  </si>
+  <si>
+    <t>呼呼，搞定！！</t>
   </si>
   <si>
     <t>等、等一下，那边好像又来了一个。</t>
   </si>
   <si>
     <t>角色动作</t>
+  </si>
+  <si>
+    <t>涂凌_思考_动作_循环_01</t>
   </si>
   <si>
     <t>特殊-闪白效果</t>
@@ -330,12 +335,15 @@
   </si>
   <si>
     <t>又要攻过来了！！
-你往右边偏40°，打准一点啊！</t>
+你往左边偏40°，打准一点啊！</t>
   </si>
   <si>
-    <t xml:space="preserve">嗷呜——没有『稳定剂』我很难保持思考！
-你既然看得这么清楚，直接告诉我们怎么做吧！
-</t>
+    <t>嗷呜——！！
+没有『稳定剂』，我很难保持思考！</t>
+  </si>
+  <si>
+    <t>你既然看得这么清楚！
+直接告诉我们怎么做吧！！</t>
   </si>
   <si>
     <t>{music=high}</t>
@@ -366,7 +374,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="35">
+  <fonts count="36">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -440,6 +448,23 @@
     <font>
       <sz val="12"/>
       <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -588,18 +613,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <b/>
       <sz val="9"/>
       <name val="宋体"/>
@@ -611,7 +624,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="39">
+  <fills count="41">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -652,6 +665,24 @@
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
     <fill>
@@ -800,12 +831,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -841,7 +866,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -861,6 +886,21 @@
       </top>
       <bottom style="thin">
         <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFD9D9D9"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFD9D9D9"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFD9D9D9"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFD9D9D9"/>
       </bottom>
       <diagonal/>
     </border>
@@ -970,10 +1010,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -982,103 +1022,94 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="17" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="20" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1087,38 +1118,47 @@
     <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="15" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="18" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1216,19 +1256,22 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="49" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="49" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="49" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="49" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="49" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="49" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1255,11 +1298,32 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="49" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="49" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="51">
@@ -2703,12 +2767,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:J23"/>
+  <dimension ref="A1:P28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="D21" sqref="D19:H21"/>
+      <selection pane="bottomLeft" activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.1" customHeight="1"/>
@@ -2753,7 +2817,7 @@
       <c r="B2" s="14"/>
       <c r="C2" s="14"/>
       <c r="D2" s="18" t="str">
-        <f ca="1">INDEX($D$5:$D$888,CELL("row")-4)</f>
+        <f ca="1">INDEX($D$5:$D$893,CELL("row")-4)</f>
         <v>角色台词</v>
       </c>
       <c r="E2" s="19" t="str">
@@ -2788,7 +2852,7 @@
 【recall代表文字居中，默认是左对齐】
 【type代表文字框类型，可不填，则默认是0。1=电影字幕，2=泡泡框，3=推理对话。在类型是2的情况下，bubbleStyle代表泡泡类型，1=云朵形；2=锯齿形；3=普通形，X代表X轴偏移，Y代表Y轴偏移，正坐标系，BubbleFlipX代表镜像，scale代表底板的缩放，默认是1,,rotate旋转角度默认0】</v>
       </c>
-      <c r="J2" s="47" t="s">
+      <c r="J2" s="48" t="s">
         <v>6</v>
       </c>
     </row>
@@ -2872,7 +2936,7 @@
     </row>
     <row r="6" s="8" customFormat="1" ht="21" customHeight="1" spans="1:8">
       <c r="A6" s="30">
-        <f t="shared" ref="A6:A14" si="0">ROW()-6</f>
+        <f t="shared" ref="A6:A28" si="0">ROW()-6</f>
         <v>0</v>
       </c>
       <c r="B6" s="31" t="s">
@@ -2930,23 +2994,23 @@
       <c r="H8" s="32"/>
     </row>
     <row r="9" s="10" customFormat="1" ht="15.95" customHeight="1" spans="1:9">
-      <c r="A9" s="42">
+      <c r="A9" s="43">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="C9" s="44">
+      <c r="C9" s="45">
         <v>1</v>
       </c>
-      <c r="D9" s="44" t="s">
+      <c r="D9" s="45" t="s">
         <v>26</v>
       </c>
-      <c r="E9" s="44"/>
-      <c r="F9" s="45" t="s">
+      <c r="E9" s="45"/>
+      <c r="F9" s="46" t="s">
         <v>27</v>
       </c>
-      <c r="G9" s="44"/>
-      <c r="H9" s="44"/>
-      <c r="I9" s="49"/>
+      <c r="G9" s="45"/>
+      <c r="H9" s="45"/>
+      <c r="I9" s="50"/>
     </row>
     <row r="10" s="9" customFormat="1" ht="15.95" customHeight="1" spans="1:9">
       <c r="A10" s="30">
@@ -2966,11 +3030,11 @@
       </c>
       <c r="G10" s="34"/>
       <c r="H10" s="36"/>
-      <c r="I10" s="48"/>
+      <c r="I10" s="49"/>
     </row>
     <row r="11" s="9" customFormat="1" ht="15.95" customHeight="1" spans="1:9">
       <c r="A11" s="34">
-        <f t="shared" ref="A11:A17" si="1">ROW()-6</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="B11" s="31"/>
@@ -2981,14 +3045,14 @@
       <c r="E11" t="s">
         <v>32</v>
       </c>
-      <c r="F11" s="39" t="s">
+      <c r="F11" s="37" t="s">
         <v>33</v>
       </c>
       <c r="G11" s="34"/>
-      <c r="H11" s="40" t="s">
+      <c r="H11" s="38" t="s">
         <v>34</v>
       </c>
-      <c r="I11" s="48"/>
+      <c r="I11" s="49"/>
     </row>
     <row r="12" s="9" customFormat="1" ht="30" customHeight="1" spans="1:9">
       <c r="A12" s="30">
@@ -3010,7 +3074,7 @@
       <c r="H12" s="36" t="s">
         <v>36</v>
       </c>
-      <c r="I12" s="48"/>
+      <c r="I12" s="49"/>
     </row>
     <row r="13" s="9" customFormat="1" ht="30" customHeight="1" spans="1:9">
       <c r="A13" s="30">
@@ -3020,204 +3084,320 @@
       <c r="B13" s="31"/>
       <c r="C13" s="34"/>
       <c r="D13" s="34" t="s">
+        <v>26</v>
+      </c>
+      <c r="E13" t="s">
+        <v>32</v>
+      </c>
+      <c r="F13" s="35" t="s">
         <v>37</v>
       </c>
-      <c r="E13" s="34"/>
-      <c r="F13" s="35" t="s">
-        <v>38</v>
-      </c>
       <c r="G13" s="34"/>
-      <c r="H13" s="36"/>
-      <c r="I13" s="48"/>
-    </row>
-    <row r="14" s="9" customFormat="1" ht="30" customHeight="1" spans="1:9">
-      <c r="A14" s="42">
+      <c r="H13" s="36" t="s">
+        <v>36</v>
+      </c>
+      <c r="I13" s="49"/>
+    </row>
+    <row r="14" customFormat="1" ht="13.5" spans="1:16">
+      <c r="A14" s="51">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="C14" s="34"/>
-      <c r="G14" s="34"/>
-      <c r="H14" s="36"/>
-      <c r="I14" s="48"/>
-    </row>
-    <row r="15" s="9" customFormat="1" ht="30.95" customHeight="1" spans="1:9">
-      <c r="A15" s="34">
-        <f t="shared" si="1"/>
+      <c r="B14" s="52"/>
+      <c r="C14" s="53"/>
+      <c r="D14" s="54" t="s">
+        <v>38</v>
+      </c>
+      <c r="E14" s="54" t="s">
+        <v>39</v>
+      </c>
+      <c r="F14" s="55" t="b">
+        <v>0</v>
+      </c>
+      <c r="G14" s="54"/>
+      <c r="H14" s="54"/>
+      <c r="I14" s="58"/>
+      <c r="J14" s="59"/>
+      <c r="K14" s="59"/>
+      <c r="L14" s="59"/>
+      <c r="M14" s="59"/>
+      <c r="N14" s="59"/>
+      <c r="O14" s="59"/>
+      <c r="P14" s="59"/>
+    </row>
+    <row r="15" s="9" customFormat="1" ht="30" customHeight="1" spans="1:9">
+      <c r="A15" s="30">
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="B15" s="31" t="s">
-        <v>39</v>
-      </c>
+      <c r="B15" s="31"/>
       <c r="C15" s="34"/>
-      <c r="D15" t="s">
-        <v>26</v>
-      </c>
-      <c r="E15" s="37" t="s">
+      <c r="D15" s="34" t="s">
         <v>40</v>
       </c>
-      <c r="F15" s="50" t="s">
+      <c r="E15" s="34"/>
+      <c r="F15" s="35" t="s">
         <v>41</v>
       </c>
       <c r="G15" s="34"/>
       <c r="H15" s="36"/>
-      <c r="I15" s="48"/>
-    </row>
-    <row r="16" s="9" customFormat="1" ht="30.95" customHeight="1" spans="1:9">
-      <c r="A16" s="34">
-        <f t="shared" si="1"/>
+      <c r="I15" s="49"/>
+    </row>
+    <row r="16" s="9" customFormat="1" ht="30" customHeight="1" spans="1:9">
+      <c r="A16" s="43">
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="B16" s="31"/>
+      <c r="B16" s="31" t="s">
+        <v>42</v>
+      </c>
       <c r="C16" s="34"/>
-      <c r="D16" t="s">
-        <v>26</v>
-      </c>
-      <c r="E16" s="37" t="s">
-        <v>40</v>
-      </c>
-      <c r="F16" s="50" t="s">
-        <v>42</v>
-      </c>
       <c r="G16" s="34"/>
       <c r="H16" s="36"/>
-      <c r="I16" s="48"/>
-    </row>
-    <row r="17" s="9" customFormat="1" ht="30.95" customHeight="1" spans="1:9">
-      <c r="A17" s="34">
-        <f t="shared" si="1"/>
+      <c r="I16" s="49"/>
+    </row>
+    <row r="17" s="9" customFormat="1" ht="15.95" customHeight="1" spans="1:9">
+      <c r="A17" s="30">
+        <f t="shared" si="0"/>
         <v>11</v>
       </c>
       <c r="B17" s="31"/>
       <c r="C17" s="34"/>
-      <c r="D17" t="s">
-        <v>26</v>
-      </c>
-      <c r="E17" s="37"/>
-      <c r="F17" s="50" t="s">
-        <v>43</v>
+      <c r="D17" s="34" t="s">
+        <v>28</v>
+      </c>
+      <c r="E17" s="34" t="s">
+        <v>29</v>
+      </c>
+      <c r="F17" s="35" t="s">
+        <v>30</v>
       </c>
       <c r="G17" s="34"/>
-      <c r="H17" s="36" t="s">
-        <v>44</v>
-      </c>
-      <c r="I17" s="48"/>
-    </row>
-    <row r="18" s="9" customFormat="1" ht="30.95" customHeight="1" spans="1:9">
+      <c r="H17" s="36"/>
+      <c r="I17" s="49"/>
+    </row>
+    <row r="18" s="9" customFormat="1" ht="15.95" customHeight="1" spans="1:9">
       <c r="A18" s="34">
-        <f t="shared" ref="A18:A23" si="2">ROW()-6</f>
+        <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="B18" s="31"/>
       <c r="C18" s="34"/>
-      <c r="D18" s="34" t="s">
-        <v>45</v>
-      </c>
-      <c r="E18" s="34" t="s">
+      <c r="D18" t="s">
+        <v>31</v>
+      </c>
+      <c r="E18" t="s">
         <v>32</v>
       </c>
-      <c r="F18" s="51" t="s">
-        <v>46</v>
+      <c r="F18" s="37" t="s">
+        <v>33</v>
       </c>
       <c r="G18" s="34"/>
-      <c r="I18" s="48"/>
-    </row>
-    <row r="19" s="9" customFormat="1" ht="63" customHeight="1" spans="1:9">
+      <c r="H18" s="38" t="s">
+        <v>34</v>
+      </c>
+      <c r="I18" s="49"/>
+    </row>
+    <row r="19" s="9" customFormat="1" ht="30.95" customHeight="1" spans="1:9">
       <c r="A19" s="34">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>13</v>
       </c>
       <c r="B19" s="31"/>
       <c r="C19" s="34"/>
       <c r="D19" s="34" t="s">
-        <v>26</v>
+        <v>43</v>
       </c>
       <c r="E19" s="34" t="s">
         <v>32</v>
       </c>
-      <c r="F19" s="51" t="s">
-        <v>47</v>
+      <c r="F19" s="42" t="s">
+        <v>44</v>
       </c>
       <c r="G19" s="34"/>
-      <c r="H19" s="36" t="s">
-        <v>36</v>
-      </c>
-      <c r="I19" s="48"/>
+      <c r="I19" s="49"/>
     </row>
     <row r="20" s="9" customFormat="1" ht="30.95" customHeight="1" spans="1:9">
       <c r="A20" s="34">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>14</v>
       </c>
       <c r="B20" s="31"/>
       <c r="C20" s="34"/>
-      <c r="D20" s="34" t="s">
+      <c r="D20" t="s">
+        <v>26</v>
+      </c>
+      <c r="E20" s="39" t="s">
         <v>45</v>
       </c>
-      <c r="E20" s="34" t="s">
-        <v>32</v>
-      </c>
-      <c r="F20" s="51" t="s">
-        <v>48</v>
+      <c r="F20" s="56" t="s">
+        <v>46</v>
       </c>
       <c r="G20" s="34"/>
-      <c r="H20" s="36" t="s">
-        <v>36</v>
-      </c>
-      <c r="I20" s="48"/>
+      <c r="H20" s="36"/>
+      <c r="I20" s="49"/>
     </row>
     <row r="21" s="9" customFormat="1" ht="30.95" customHeight="1" spans="1:9">
       <c r="A21" s="34">
-        <f t="shared" si="2"/>
+        <f>ROW()-6</f>
         <v>15</v>
       </c>
       <c r="B21" s="31"/>
       <c r="C21" s="34"/>
-      <c r="D21" s="34" t="s">
-        <v>49</v>
-      </c>
-      <c r="E21" s="34"/>
-      <c r="F21" s="51"/>
+      <c r="D21" t="s">
+        <v>26</v>
+      </c>
+      <c r="E21" s="39" t="s">
+        <v>45</v>
+      </c>
+      <c r="F21" s="56" t="s">
+        <v>47</v>
+      </c>
       <c r="G21" s="34"/>
-      <c r="I21" s="48"/>
-    </row>
-    <row r="22" customFormat="1" ht="15" customHeight="1" spans="1:9">
+      <c r="H21" s="36"/>
+      <c r="I21" s="49"/>
+    </row>
+    <row r="22" s="9" customFormat="1" ht="30.95" customHeight="1" spans="1:9">
       <c r="A22" s="34">
-        <f t="shared" si="2"/>
+        <f>ROW()-6</f>
         <v>16</v>
       </c>
       <c r="B22" s="31"/>
       <c r="C22" s="34"/>
       <c r="D22" s="34" t="s">
-        <v>37</v>
-      </c>
-      <c r="E22" s="34"/>
-      <c r="F22" s="35" t="s">
-        <v>38</v>
-      </c>
-      <c r="G22" s="41"/>
-      <c r="H22" s="41"/>
-      <c r="I22" s="11"/>
-    </row>
-    <row r="23" s="9" customFormat="1" ht="15.95" customHeight="1" spans="1:9">
-      <c r="A23" s="30">
-        <f t="shared" si="2"/>
+        <v>43</v>
+      </c>
+      <c r="E22" s="34" t="s">
+        <v>32</v>
+      </c>
+      <c r="F22" s="42" t="s">
+        <v>48</v>
+      </c>
+      <c r="G22" s="34"/>
+      <c r="I22" s="49"/>
+    </row>
+    <row r="23" s="9" customFormat="1" ht="30.95" customHeight="1" spans="1:9">
+      <c r="A23" s="34">
+        <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="B23" s="31" t="s">
-        <v>38</v>
-      </c>
+      <c r="B23" s="31"/>
       <c r="C23" s="34"/>
-      <c r="D23" s="34"/>
-      <c r="E23" s="34"/>
-      <c r="F23" s="35"/>
-      <c r="I23" s="48"/>
+      <c r="D23" t="s">
+        <v>26</v>
+      </c>
+      <c r="E23" s="34" t="s">
+        <v>32</v>
+      </c>
+      <c r="F23" s="56" t="s">
+        <v>49</v>
+      </c>
+      <c r="G23" s="34"/>
+      <c r="H23" s="53" t="s">
+        <v>50</v>
+      </c>
+      <c r="I23" s="49"/>
+    </row>
+    <row r="24" s="9" customFormat="1" ht="63" customHeight="1" spans="1:9">
+      <c r="A24" s="34">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="B24" s="31"/>
+      <c r="C24" s="34"/>
+      <c r="D24" s="34" t="s">
+        <v>26</v>
+      </c>
+      <c r="E24" s="34" t="s">
+        <v>32</v>
+      </c>
+      <c r="F24" s="57" t="s">
+        <v>51</v>
+      </c>
+      <c r="G24" s="34"/>
+      <c r="H24" s="36" t="s">
+        <v>36</v>
+      </c>
+      <c r="I24" s="49"/>
+    </row>
+    <row r="25" s="9" customFormat="1" ht="63" customHeight="1" spans="1:9">
+      <c r="A25" s="34">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="B25" s="31"/>
+      <c r="C25" s="34"/>
+      <c r="D25" s="34" t="s">
+        <v>26</v>
+      </c>
+      <c r="E25" s="34" t="s">
+        <v>32</v>
+      </c>
+      <c r="F25" s="57" t="s">
+        <v>52</v>
+      </c>
+      <c r="G25" s="34"/>
+      <c r="H25" s="36" t="s">
+        <v>36</v>
+      </c>
+      <c r="I25" s="49"/>
+    </row>
+    <row r="26" s="9" customFormat="1" ht="30.95" customHeight="1" spans="1:9">
+      <c r="A26" s="34">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="B26" s="31"/>
+      <c r="C26" s="34"/>
+      <c r="D26" s="34" t="s">
+        <v>53</v>
+      </c>
+      <c r="E26" s="34"/>
+      <c r="F26" s="42"/>
+      <c r="G26" s="34"/>
+      <c r="I26" s="49"/>
+    </row>
+    <row r="27" customFormat="1" ht="15" customHeight="1" spans="1:9">
+      <c r="A27" s="34">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="B27" s="31"/>
+      <c r="C27" s="34"/>
+      <c r="D27" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="E27" s="34"/>
+      <c r="F27" s="35" t="s">
+        <v>41</v>
+      </c>
+      <c r="G27" s="41"/>
+      <c r="H27" s="41"/>
+      <c r="I27" s="11"/>
+    </row>
+    <row r="28" s="9" customFormat="1" ht="15.95" customHeight="1" spans="1:9">
+      <c r="A28" s="30">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="B28" s="31" t="s">
+        <v>41</v>
+      </c>
+      <c r="C28" s="34"/>
+      <c r="D28" s="34"/>
+      <c r="E28" s="34"/>
+      <c r="F28" s="35"/>
+      <c r="I28" s="49"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:J23">
+  <autoFilter ref="A1:J28">
     <extLst/>
   </autoFilter>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D13 D22">
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D14">
+      <formula1/>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D15 D27">
       <formula1>[1]辅助表!#REF!</formula1>
     </dataValidation>
   </dataValidations>
@@ -3231,12 +3411,12 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1:J24"/>
+  <dimension ref="A1:J29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="D17" sqref="D17"/>
+      <selection pane="bottomLeft" activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.1" customHeight="1"/>
@@ -3281,42 +3461,26 @@
       <c r="B2" s="14"/>
       <c r="C2" s="14"/>
       <c r="D2" s="18" t="str">
-        <f ca="1">INDEX($D$5:$D$889,CELL("row")-4)</f>
-        <v>角色台词</v>
-      </c>
-      <c r="E2" s="19" t="str">
+        <f ca="1">INDEX($D$5:$D$894,CELL("row")-4)</f>
+        <v>移除角色</v>
+      </c>
+      <c r="E2" s="19" t="e">
         <f ca="1">IF(VLOOKUP($D$2,INDIRECT(J2),2,)&lt;&gt;0,VLOOKUP($D$2,INDIRECT(J2),2,),"")</f>
-        <v>npc_meiluni
-【行为主体，NPC别名，在角色表中配置】</v>
-      </c>
-      <c r="F2" s="20" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="F2" s="20" t="e">
         <f ca="1">IF(VLOOKUP($D$2,INDIRECT(J2),3,)&lt;&gt;0,VLOOKUP($D$2,INDIRECT(J2),3,),"")</f>
-        <v>啊，{talk,,102102}{s=0.5}{1.0}节日的{suspend=1}一天！{角色动作,,1002}{角色表情,,10040;20030}{镜头切换,1}终于可以&lt;color=red&gt;休息&lt;/color&gt;了啊！{镜头移动,2,1}{autoend}
-【talk代表说话的口型，ID在编辑器animator中配置。这个命令跟外部写法“角色说话”不同】
-【命令用{}括起】
-【sleep代表停顿，可不填，文本播放在此停顿n秒后继续播放】
-【color代表颜色，可以写英文可以写色号，文字样式改变的命令还有&lt;b&gt;&lt;/b&gt;粗体，&lt;i&gt;&lt;/i&gt;斜体，&lt;size=60&gt;&lt;/size&gt;字号，】
-【shake代表抖动，1=文字框抖动，2=摄像机抖动，3=二者一起抖动】
-【s代表文字速度，原speed，数值越小越快】
-【suspend代表停顿，需要玩家手动点击文本才会继续播放下去，在同一个句子中出现多处停顿时，suspend后的数值要依次+1】
-【autoend代表自动结束，加在文字最后可实现不需要点击就自动执行后面action】
-【voice代表本句打字机使用的声音，填写mobi_client\mobi_client\Assets\Resources\avg\audios路径下的文件名字。可不填写，使用AVG人物表种填写的文件名，如单句不想播放声音，需在添加voice=none，不需要填写后缀名，填写格式,例voice=voice_didi_man_2】
-【&amp;XXX】词条简易配置方式{&amp;涂凌}
-【#XXX】文本宏简易配置方式</v>
-      </c>
-      <c r="G2" s="20" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="G2" s="20" t="e">
         <f ca="1">IF(VLOOKUP($D$2,INDIRECT(J2),4,)&lt;&gt;0,VLOOKUP($D$2,INDIRECT(J2),4,),"")</f>
-        <v>rui_01
-【语音文件的名字】</v>
-      </c>
-      <c r="H2" s="20" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="H2" s="20" t="e">
         <f ca="1">IF(VLOOKUP($D$2,INDIRECT(J2),5,)&lt;&gt;0,VLOOKUP($D$2,INDIRECT(J2),5,),"")</f>
-        <v>type=2,offx=1.5,offy=-0.4,bubbleStyle=2,bubbleFlipX=1
-recall=1,scale=1.3,rotate=30
-【recall代表文字居中，默认是左对齐】
-【type代表文字框类型，可不填，则默认是0。1=电影字幕，2=泡泡框，3=推理对话。在类型是2的情况下，bubbleStyle代表泡泡类型，1=云朵形；2=锯齿形；3=普通形，X代表X轴偏移，Y代表Y轴偏移，正坐标系，BubbleFlipX代表镜像，scale代表底板的缩放，默认是1,,rotate旋转角度默认0】</v>
-      </c>
-      <c r="J2" s="47" t="s">
+        <v>#N/A</v>
+      </c>
+      <c r="J2" s="48" t="s">
         <v>6</v>
       </c>
     </row>
@@ -3400,7 +3564,7 @@
     </row>
     <row r="6" s="8" customFormat="1" ht="21" customHeight="1" spans="1:8">
       <c r="A6" s="30">
-        <f t="shared" ref="A6:A11" si="0">ROW()-6</f>
+        <f t="shared" ref="A6:A22" si="0">ROW()-6</f>
         <v>0</v>
       </c>
       <c r="B6" s="31" t="s">
@@ -3431,49 +3595,49 @@
       </c>
       <c r="G7" s="34"/>
       <c r="H7" s="36"/>
-      <c r="I7" s="48"/>
-    </row>
-    <row r="8" s="9" customFormat="1" ht="30" customHeight="1" spans="1:9">
-      <c r="A8" s="30">
+      <c r="I7" s="49"/>
+    </row>
+    <row r="8" s="9" customFormat="1" ht="15.95" customHeight="1" spans="1:9">
+      <c r="A8" s="34">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="B8" s="31"/>
       <c r="C8" s="34"/>
-      <c r="D8" s="34" t="s">
-        <v>26</v>
-      </c>
-      <c r="E8" s="37" t="s">
-        <v>40</v>
-      </c>
-      <c r="F8" s="38" t="s">
-        <v>50</v>
+      <c r="D8" t="s">
+        <v>31</v>
+      </c>
+      <c r="E8" t="s">
+        <v>32</v>
+      </c>
+      <c r="F8" s="37" t="s">
+        <v>33</v>
       </c>
       <c r="G8" s="34"/>
-      <c r="H8" s="36"/>
-      <c r="I8" s="48"/>
-    </row>
-    <row r="9" s="9" customFormat="1" ht="15.95" customHeight="1" spans="1:9">
-      <c r="A9" s="34">
+      <c r="H8" s="38" t="s">
+        <v>54</v>
+      </c>
+      <c r="I8" s="49"/>
+    </row>
+    <row r="9" s="9" customFormat="1" ht="30" customHeight="1" spans="1:9">
+      <c r="A9" s="30">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="B9" s="31"/>
       <c r="C9" s="34"/>
-      <c r="D9" t="s">
-        <v>31</v>
-      </c>
-      <c r="E9" t="s">
-        <v>32</v>
-      </c>
-      <c r="F9" s="39" t="s">
-        <v>33</v>
+      <c r="D9" s="34" t="s">
+        <v>26</v>
+      </c>
+      <c r="E9" s="39" t="s">
+        <v>45</v>
+      </c>
+      <c r="F9" s="40" t="s">
+        <v>55</v>
       </c>
       <c r="G9" s="34"/>
-      <c r="H9" s="40" t="s">
-        <v>34</v>
-      </c>
-      <c r="I9" s="48"/>
+      <c r="H9" s="36"/>
+      <c r="I9" s="49"/>
     </row>
     <row r="10" s="9" customFormat="1" ht="30.95" customHeight="1" spans="1:9">
       <c r="A10" s="34">
@@ -3488,14 +3652,14 @@
       <c r="E10" t="s">
         <v>32</v>
       </c>
-      <c r="F10" s="38" t="s">
-        <v>51</v>
+      <c r="F10" s="40" t="s">
+        <v>56</v>
       </c>
       <c r="G10" s="34"/>
       <c r="H10" s="36" t="s">
         <v>36</v>
       </c>
-      <c r="I10" s="48"/>
+      <c r="I10" s="49"/>
     </row>
     <row r="11" s="9" customFormat="1" ht="30.95" customHeight="1" spans="1:9">
       <c r="A11" s="34">
@@ -3507,39 +3671,39 @@
       <c r="D11" t="s">
         <v>26</v>
       </c>
-      <c r="E11" s="37" t="s">
-        <v>40</v>
-      </c>
-      <c r="F11" s="38" t="s">
-        <v>52</v>
+      <c r="E11" s="39" t="s">
+        <v>45</v>
+      </c>
+      <c r="F11" s="40" t="s">
+        <v>57</v>
       </c>
       <c r="G11" s="34"/>
       <c r="H11" s="36"/>
-      <c r="I11" s="48"/>
+      <c r="I11" s="49"/>
     </row>
     <row r="12" s="9" customFormat="1" ht="12" spans="1:9">
       <c r="A12" s="30">
-        <f t="shared" ref="A12:A15" si="1">ROW()-6</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="B12" s="31"/>
       <c r="C12" s="34"/>
       <c r="D12" s="34" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="E12" s="34" t="s">
         <v>32</v>
       </c>
       <c r="F12" s="35" t="s">
-        <v>34</v>
+        <v>59</v>
       </c>
       <c r="G12" s="34"/>
       <c r="H12" s="36"/>
-      <c r="I12" s="48"/>
+      <c r="I12" s="49"/>
     </row>
     <row r="13" s="9" customFormat="1" ht="29.1" customHeight="1" spans="1:9">
       <c r="A13" s="30">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="B13" s="31"/>
@@ -3547,7 +3711,7 @@
         <v>1</v>
       </c>
       <c r="D13" s="34" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="E13" s="34">
         <v>1</v>
@@ -3555,11 +3719,11 @@
       <c r="F13" s="35"/>
       <c r="G13" s="34"/>
       <c r="H13" s="36"/>
-      <c r="I13" s="48"/>
+      <c r="I13" s="49"/>
     </row>
     <row r="14" s="9" customFormat="1" ht="29.1" customHeight="1" spans="1:9">
       <c r="A14" s="30">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="B14" s="31"/>
@@ -3570,209 +3734,303 @@
         <v>1</v>
       </c>
       <c r="E14" s="34" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="F14" s="35"/>
       <c r="G14" s="34"/>
       <c r="H14" s="36"/>
-      <c r="I14" s="48"/>
+      <c r="I14" s="49"/>
     </row>
     <row r="15" customFormat="1" ht="15" customHeight="1" spans="1:9">
       <c r="A15" s="34">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="B15" s="31"/>
       <c r="C15" s="34"/>
       <c r="D15" s="34" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="E15" s="34"/>
       <c r="F15" s="35" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="G15" s="41"/>
       <c r="H15" s="41"/>
       <c r="I15" s="11"/>
     </row>
-    <row r="16" s="9" customFormat="1" ht="30" customHeight="1" spans="1:9">
-      <c r="A16" s="30">
-        <f>ROW()-6</f>
+    <row r="16" customFormat="1" ht="15" customHeight="1" spans="1:9">
+      <c r="A16" s="34">
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="B16" s="31" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="C16" s="34"/>
-      <c r="D16" s="34" t="s">
-        <v>26</v>
-      </c>
-      <c r="E16" s="37" t="s">
-        <v>40</v>
-      </c>
-      <c r="F16" s="38" t="s">
-        <v>57</v>
-      </c>
-      <c r="G16" s="34"/>
-      <c r="H16" s="36"/>
-      <c r="I16" s="48"/>
-    </row>
-    <row r="17" s="9" customFormat="1" ht="67.5" spans="1:9">
-      <c r="A17" s="34">
-        <f>ROW()-6</f>
+      <c r="D16" s="34"/>
+      <c r="E16" s="34"/>
+      <c r="F16" s="35"/>
+      <c r="G16" s="41"/>
+      <c r="H16" s="41"/>
+      <c r="I16" s="11"/>
+    </row>
+    <row r="17" s="9" customFormat="1" ht="15.95" customHeight="1" spans="1:9">
+      <c r="A17" s="30">
+        <f t="shared" si="0"/>
         <v>11</v>
       </c>
       <c r="B17" s="31"/>
       <c r="C17" s="34"/>
-      <c r="D17" t="s">
-        <v>26</v>
-      </c>
-      <c r="E17" t="s">
-        <v>32</v>
-      </c>
-      <c r="F17" s="38" t="s">
-        <v>58</v>
+      <c r="D17" s="34" t="s">
+        <v>28</v>
+      </c>
+      <c r="E17" s="34" t="s">
+        <v>29</v>
+      </c>
+      <c r="F17" s="35" t="s">
+        <v>30</v>
       </c>
       <c r="G17" s="34"/>
-      <c r="H17" s="36" t="s">
-        <v>36</v>
-      </c>
-      <c r="I17" s="48"/>
-    </row>
-    <row r="18" s="9" customFormat="1" ht="29.1" customHeight="1" spans="1:9">
+      <c r="H17" s="36"/>
+      <c r="I17" s="49"/>
+    </row>
+    <row r="18" s="9" customFormat="1" ht="30" customHeight="1" spans="1:9">
       <c r="A18" s="30">
-        <f t="shared" ref="A18:A24" si="2">ROW()-6</f>
+        <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="B18" s="31"/>
       <c r="C18" s="34"/>
       <c r="D18" s="34" t="s">
-        <v>49</v>
-      </c>
-      <c r="E18" s="34"/>
-      <c r="F18" s="35"/>
+        <v>26</v>
+      </c>
+      <c r="E18" s="39" t="s">
+        <v>45</v>
+      </c>
+      <c r="F18" s="40" t="s">
+        <v>63</v>
+      </c>
       <c r="G18" s="34"/>
       <c r="H18" s="36"/>
-      <c r="I18" s="48"/>
-    </row>
-    <row r="19" s="10" customFormat="1" ht="29.1" customHeight="1" spans="1:9">
-      <c r="A19" s="42">
-        <f t="shared" si="2"/>
+      <c r="I18" s="49"/>
+    </row>
+    <row r="19" s="9" customFormat="1" ht="15.95" customHeight="1" spans="1:9">
+      <c r="A19" s="34">
+        <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="B19" s="43"/>
-      <c r="C19" s="44">
-        <v>1</v>
-      </c>
-      <c r="D19" s="44" t="s">
+      <c r="B19" s="31"/>
+      <c r="C19" s="34"/>
+      <c r="D19" t="s">
+        <v>31</v>
+      </c>
+      <c r="E19" t="s">
+        <v>32</v>
+      </c>
+      <c r="F19" s="37" t="s">
+        <v>33</v>
+      </c>
+      <c r="G19" s="34"/>
+      <c r="H19" s="38" t="s">
+        <v>34</v>
+      </c>
+      <c r="I19" s="49"/>
+    </row>
+    <row r="20" s="9" customFormat="1" ht="30.95" customHeight="1" spans="1:9">
+      <c r="A20" s="34">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="B20" s="31"/>
+      <c r="C20" s="34"/>
+      <c r="D20" s="34" t="s">
+        <v>43</v>
+      </c>
+      <c r="E20" s="34" t="s">
+        <v>32</v>
+      </c>
+      <c r="F20" s="42" t="s">
+        <v>48</v>
+      </c>
+      <c r="G20" s="34"/>
+      <c r="I20" s="49"/>
+    </row>
+    <row r="21" s="9" customFormat="1" ht="27" spans="1:9">
+      <c r="A21" s="34">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="B21" s="31"/>
+      <c r="C21" s="34"/>
+      <c r="D21" t="s">
         <v>26</v>
       </c>
-      <c r="E19" s="44"/>
-      <c r="F19" s="45" t="s">
-        <v>59</v>
-      </c>
-      <c r="G19" s="44"/>
-      <c r="H19" s="46"/>
-      <c r="I19" s="49"/>
-    </row>
-    <row r="20" s="8" customFormat="1" ht="21" customHeight="1" spans="1:8">
-      <c r="A20" s="30">
-        <f t="shared" si="2"/>
-        <v>14</v>
-      </c>
-      <c r="B20" s="31"/>
-      <c r="C20" s="32"/>
-      <c r="D20" s="33" t="s">
-        <v>22</v>
-      </c>
-      <c r="E20" s="33" t="s">
-        <v>23</v>
-      </c>
-      <c r="F20" s="33">
-        <v>1</v>
-      </c>
-      <c r="G20" s="32"/>
-      <c r="H20" s="32"/>
-    </row>
-    <row r="21" s="8" customFormat="1" ht="21" customHeight="1" spans="1:8">
-      <c r="A21" s="30">
-        <f t="shared" si="2"/>
-        <v>15</v>
-      </c>
-      <c r="B21" s="32"/>
-      <c r="C21" s="32"/>
-      <c r="D21" s="33" t="s">
-        <v>22</v>
-      </c>
-      <c r="E21" s="33" t="s">
-        <v>24</v>
-      </c>
-      <c r="F21" s="33">
-        <v>1</v>
-      </c>
-      <c r="G21" s="32"/>
-      <c r="H21" s="32"/>
-    </row>
-    <row r="22" s="8" customFormat="1" ht="21" customHeight="1" spans="1:8">
-      <c r="A22" s="30">
-        <f t="shared" si="2"/>
+      <c r="E21" t="s">
+        <v>32</v>
+      </c>
+      <c r="F21" s="40" t="s">
+        <v>64</v>
+      </c>
+      <c r="G21" s="34"/>
+      <c r="H21" s="36" t="s">
+        <v>36</v>
+      </c>
+      <c r="I21" s="49"/>
+    </row>
+    <row r="22" s="9" customFormat="1" ht="27" spans="1:9">
+      <c r="A22" s="34">
+        <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="B22" s="32"/>
-      <c r="C22" s="32"/>
-      <c r="D22" s="33" t="s">
-        <v>22</v>
-      </c>
-      <c r="E22" s="33" t="s">
-        <v>25</v>
-      </c>
-      <c r="F22" s="33">
-        <v>1</v>
-      </c>
-      <c r="G22" s="32"/>
-      <c r="H22" s="32"/>
-    </row>
-    <row r="23" customFormat="1" ht="15" customHeight="1" spans="1:9">
-      <c r="A23" s="34">
-        <f t="shared" si="2"/>
+      <c r="B22" s="31"/>
+      <c r="C22" s="34"/>
+      <c r="D22" t="s">
+        <v>26</v>
+      </c>
+      <c r="E22" t="s">
+        <v>32</v>
+      </c>
+      <c r="F22" s="40" t="s">
+        <v>65</v>
+      </c>
+      <c r="G22" s="34"/>
+      <c r="H22" s="36" t="s">
+        <v>36</v>
+      </c>
+      <c r="I22" s="49"/>
+    </row>
+    <row r="23" s="9" customFormat="1" ht="29.1" customHeight="1" spans="1:9">
+      <c r="A23" s="30">
+        <f t="shared" ref="A23:A29" si="1">ROW()-6</f>
         <v>17</v>
       </c>
       <c r="B23" s="31"/>
       <c r="C23" s="34"/>
       <c r="D23" s="34" t="s">
-        <v>37</v>
+        <v>53</v>
       </c>
       <c r="E23" s="34"/>
-      <c r="F23" s="35" t="s">
-        <v>38</v>
-      </c>
-      <c r="G23" s="41"/>
-      <c r="H23" s="41"/>
-      <c r="I23" s="11"/>
-    </row>
-    <row r="24" s="9" customFormat="1" ht="15.95" customHeight="1" spans="1:9">
-      <c r="A24" s="30">
-        <f t="shared" si="2"/>
+      <c r="F23" s="35"/>
+      <c r="G23" s="34"/>
+      <c r="H23" s="36"/>
+      <c r="I23" s="49"/>
+    </row>
+    <row r="24" s="10" customFormat="1" ht="29.1" customHeight="1" spans="1:9">
+      <c r="A24" s="43">
+        <f t="shared" si="1"/>
         <v>18</v>
       </c>
-      <c r="B24" s="31" t="s">
-        <v>38</v>
-      </c>
-      <c r="C24" s="34"/>
-      <c r="D24" s="34"/>
-      <c r="E24" s="34"/>
-      <c r="F24" s="35"/>
-      <c r="I24" s="48"/>
+      <c r="B24" s="44"/>
+      <c r="C24" s="45">
+        <v>1</v>
+      </c>
+      <c r="D24" s="45" t="s">
+        <v>26</v>
+      </c>
+      <c r="E24" s="45"/>
+      <c r="F24" s="46" t="s">
+        <v>66</v>
+      </c>
+      <c r="G24" s="45"/>
+      <c r="H24" s="47"/>
+      <c r="I24" s="50"/>
+    </row>
+    <row r="25" s="8" customFormat="1" ht="21" customHeight="1" spans="1:8">
+      <c r="A25" s="30">
+        <f t="shared" si="1"/>
+        <v>19</v>
+      </c>
+      <c r="B25" s="31"/>
+      <c r="C25" s="32"/>
+      <c r="D25" s="33" t="s">
+        <v>22</v>
+      </c>
+      <c r="E25" s="33" t="s">
+        <v>23</v>
+      </c>
+      <c r="F25" s="33">
+        <v>1</v>
+      </c>
+      <c r="G25" s="32"/>
+      <c r="H25" s="32"/>
+    </row>
+    <row r="26" s="8" customFormat="1" ht="21" customHeight="1" spans="1:8">
+      <c r="A26" s="30">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="B26" s="32"/>
+      <c r="C26" s="32"/>
+      <c r="D26" s="33" t="s">
+        <v>22</v>
+      </c>
+      <c r="E26" s="33" t="s">
+        <v>24</v>
+      </c>
+      <c r="F26" s="33">
+        <v>1</v>
+      </c>
+      <c r="G26" s="32"/>
+      <c r="H26" s="32"/>
+    </row>
+    <row r="27" s="8" customFormat="1" ht="21" customHeight="1" spans="1:8">
+      <c r="A27" s="30">
+        <f t="shared" si="1"/>
+        <v>21</v>
+      </c>
+      <c r="B27" s="32"/>
+      <c r="C27" s="32"/>
+      <c r="D27" s="33" t="s">
+        <v>22</v>
+      </c>
+      <c r="E27" s="33" t="s">
+        <v>25</v>
+      </c>
+      <c r="F27" s="33">
+        <v>1</v>
+      </c>
+      <c r="G27" s="32"/>
+      <c r="H27" s="32"/>
+    </row>
+    <row r="28" customFormat="1" ht="15" customHeight="1" spans="1:9">
+      <c r="A28" s="34">
+        <f t="shared" si="1"/>
+        <v>22</v>
+      </c>
+      <c r="B28" s="31"/>
+      <c r="C28" s="34"/>
+      <c r="D28" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="E28" s="34"/>
+      <c r="F28" s="35" t="s">
+        <v>41</v>
+      </c>
+      <c r="G28" s="41"/>
+      <c r="H28" s="41"/>
+      <c r="I28" s="11"/>
+    </row>
+    <row r="29" s="9" customFormat="1" ht="15.95" customHeight="1" spans="1:9">
+      <c r="A29" s="30">
+        <f t="shared" si="1"/>
+        <v>23</v>
+      </c>
+      <c r="B29" s="31" t="s">
+        <v>41</v>
+      </c>
+      <c r="C29" s="34"/>
+      <c r="D29" s="34"/>
+      <c r="E29" s="34"/>
+      <c r="F29" s="35"/>
+      <c r="I29" s="49"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:J24">
+  <autoFilter ref="A1:J29">
     <extLst/>
   </autoFilter>
-  <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D23">
-      <formula1>[1]辅助表!#REF!</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D15">
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D15 D16 D28">
       <formula1>[1]辅助表!#REF!</formula1>
     </dataValidation>
   </dataValidations>
@@ -3813,10 +4071,10 @@
   <sheetData>
     <row r="1" spans="1:39">
       <c r="A1" s="4" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>6</v>
@@ -3884,10 +4142,10 @@
     </row>
     <row r="2" spans="1:39">
       <c r="A2" s="4" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="AA2" s="2" t="str">
         <f>IF([2]AVG指令文档!D5&lt;&gt;0,[2]AVG指令文档!D5,"")</f>
@@ -3944,7 +4202,7 @@
     </row>
     <row r="3" spans="1:39">
       <c r="A3" s="4" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="B3" s="5">
         <v>4</v>

--- a/mobi_client/mobi_client/mobi_config/excel/AVGScripts/后续引导AVG/战斗引导_主线序章1.xlsx
+++ b/mobi_client/mobi_client/mobi_config/excel/AVGScripts/后续引导AVG/战斗引导_主线序章1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="11970"/>
+    <workbookView windowWidth="28125" windowHeight="13890" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Intro_C0_battle01" sheetId="12" r:id="rId1"/>
@@ -17,7 +17,7 @@
   </externalReferences>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Intro_C0_battle01!$A$1:$J$28</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Intro_C0_battle01_2!$A$1:$J$29</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Intro_C0_battle01_2!$A$1:$J$31</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
@@ -138,7 +138,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="75">
   <si>
     <t>说明</t>
   </si>
@@ -245,15 +245,13 @@
     <t>涂凌_紧张_动作_循环_01</t>
   </si>
   <si>
-    <t>确定为
-二级危险系数!</t>
+    <t>确定为二级危险系数!</t>
   </si>
   <si>
     <t>type=0</t>
   </si>
   <si>
-    <t>调取
-『1-198电桩少女』!</t>
+    <t>调取&lt;z=yellow&gt;『1-198电桩少女』&lt;/z&gt;!</t>
   </si>
   <si>
     <t>播放视频</t>
@@ -277,6 +275,9 @@
     <t>涂凌_待机_上脸_开始_01;涂凌_待机_下嘴_开始_01</t>
   </si>
   <si>
+    <t>name=鲨鱼服少女</t>
+  </si>
+  <si>
     <t>wo</t>
   </si>
   <si>
@@ -285,7 +286,7 @@
 </t>
   </si>
   <si>
-    <t>长得这么可爱，真的是{#涂凌紧张动作}对面那个电视机头的对手吗？？</t>
+    <t>长得这么可爱，真的是对面那个电视机头的对手吗？？</t>
   </si>
   <si>
     <t>涂凌_紧张_上脸_开始_01;涂凌_紧张_下嘴_开始_01</t>
@@ -334,16 +335,21 @@
     <t>引导涂凌技能</t>
   </si>
   <si>
-    <t>又要攻过来了！！
-你往左边偏40°，打准一点啊！</t>
+    <t>又要攻过来了！
+它怎么老是对着病床打啊！</t>
   </si>
   <si>
-    <t>嗷呜——！！
-没有『稳定剂』，我很难保持思考！</t>
+    <t>&lt;z=highlight&gt;异质物优先攻击正面的敌方单位&lt;/z&gt;，
+这是我也无法控制的事。</t>
   </si>
   <si>
-    <t>你既然看得这么清楚！
-直接告诉我们怎么做吧！！</t>
+    <t>但我的能力可以将&lt;z=highlight&gt;异质物移动到上方对应的位置&lt;/z&gt;。</t>
+  </si>
+  <si>
+    <t>目前没有『稳定剂』，我没有足够的力量。</t>
+  </si>
+  <si>
+    <t>{#涂凌严肃动作}没办法，就由你来指引我吧。</t>
   </si>
   <si>
     <t>{music=high}</t>
@@ -446,6 +452,12 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="12"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
@@ -454,12 +466,6 @@
     <font>
       <sz val="9"/>
       <color rgb="FF000000"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="8"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -613,12 +619,12 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
+      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1268,10 +1274,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="49" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="49" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1298,19 +1307,16 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="49" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="49" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1319,10 +1325,10 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2769,10 +2775,10 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:P28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="H24" sqref="H24"/>
+      <selection pane="bottomLeft" activeCell="H25" sqref="H25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.1" customHeight="1"/>
@@ -2852,7 +2858,7 @@
 【recall代表文字居中，默认是左对齐】
 【type代表文字框类型，可不填，则默认是0。1=电影字幕，2=泡泡框，3=推理对话。在类型是2的情况下，bubbleStyle代表泡泡类型，1=云朵形；2=锯齿形；3=普通形，X代表X轴偏移，Y代表Y轴偏移，正坐标系，BubbleFlipX代表镜像，scale代表底板的缩放，默认是1,,rotate旋转角度默认0】</v>
       </c>
-      <c r="J2" s="48" t="s">
+      <c r="J2" s="49" t="s">
         <v>6</v>
       </c>
     </row>
@@ -2994,23 +3000,23 @@
       <c r="H8" s="32"/>
     </row>
     <row r="9" s="10" customFormat="1" ht="15.95" customHeight="1" spans="1:9">
-      <c r="A9" s="43">
+      <c r="A9" s="44">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="C9" s="45">
+      <c r="C9" s="46">
         <v>1</v>
       </c>
-      <c r="D9" s="45" t="s">
+      <c r="D9" s="46" t="s">
         <v>26</v>
       </c>
-      <c r="E9" s="45"/>
-      <c r="F9" s="46" t="s">
+      <c r="E9" s="46"/>
+      <c r="F9" s="47" t="s">
         <v>27</v>
       </c>
-      <c r="G9" s="45"/>
-      <c r="H9" s="45"/>
-      <c r="I9" s="50"/>
+      <c r="G9" s="46"/>
+      <c r="H9" s="46"/>
+      <c r="I9" s="51"/>
     </row>
     <row r="10" s="9" customFormat="1" ht="15.95" customHeight="1" spans="1:9">
       <c r="A10" s="30">
@@ -3030,7 +3036,7 @@
       </c>
       <c r="G10" s="34"/>
       <c r="H10" s="36"/>
-      <c r="I10" s="49"/>
+      <c r="I10" s="50"/>
     </row>
     <row r="11" s="9" customFormat="1" ht="15.95" customHeight="1" spans="1:9">
       <c r="A11" s="34">
@@ -3052,7 +3058,7 @@
       <c r="H11" s="38" t="s">
         <v>34</v>
       </c>
-      <c r="I11" s="49"/>
+      <c r="I11" s="50"/>
     </row>
     <row r="12" s="9" customFormat="1" ht="30" customHeight="1" spans="1:9">
       <c r="A12" s="30">
@@ -3074,7 +3080,7 @@
       <c r="H12" s="36" t="s">
         <v>36</v>
       </c>
-      <c r="I12" s="49"/>
+      <c r="I12" s="50"/>
     </row>
     <row r="13" s="9" customFormat="1" ht="30" customHeight="1" spans="1:9">
       <c r="A13" s="30">
@@ -3096,15 +3102,15 @@
       <c r="H13" s="36" t="s">
         <v>36</v>
       </c>
-      <c r="I13" s="49"/>
+      <c r="I13" s="50"/>
     </row>
     <row r="14" customFormat="1" ht="13.5" spans="1:16">
-      <c r="A14" s="51">
+      <c r="A14" s="52">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="B14" s="52"/>
-      <c r="C14" s="53"/>
+      <c r="B14" s="53"/>
+      <c r="C14" s="41"/>
       <c r="D14" s="54" t="s">
         <v>38</v>
       </c>
@@ -3141,10 +3147,10 @@
       </c>
       <c r="G15" s="34"/>
       <c r="H15" s="36"/>
-      <c r="I15" s="49"/>
+      <c r="I15" s="50"/>
     </row>
     <row r="16" s="9" customFormat="1" ht="30" customHeight="1" spans="1:9">
-      <c r="A16" s="43">
+      <c r="A16" s="44">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
@@ -3154,7 +3160,7 @@
       <c r="C16" s="34"/>
       <c r="G16" s="34"/>
       <c r="H16" s="36"/>
-      <c r="I16" s="49"/>
+      <c r="I16" s="50"/>
     </row>
     <row r="17" s="9" customFormat="1" ht="15.95" customHeight="1" spans="1:9">
       <c r="A17" s="30">
@@ -3174,7 +3180,7 @@
       </c>
       <c r="G17" s="34"/>
       <c r="H17" s="36"/>
-      <c r="I17" s="49"/>
+      <c r="I17" s="50"/>
     </row>
     <row r="18" s="9" customFormat="1" ht="15.95" customHeight="1" spans="1:9">
       <c r="A18" s="34">
@@ -3196,7 +3202,7 @@
       <c r="H18" s="38" t="s">
         <v>34</v>
       </c>
-      <c r="I18" s="49"/>
+      <c r="I18" s="50"/>
     </row>
     <row r="19" s="9" customFormat="1" ht="30.95" customHeight="1" spans="1:9">
       <c r="A19" s="34">
@@ -3211,11 +3217,14 @@
       <c r="E19" s="34" t="s">
         <v>32</v>
       </c>
-      <c r="F19" s="42" t="s">
+      <c r="F19" s="43" t="s">
         <v>44</v>
       </c>
       <c r="G19" s="34"/>
-      <c r="I19" s="49"/>
+      <c r="H19" s="41" t="s">
+        <v>45</v>
+      </c>
+      <c r="I19" s="50"/>
     </row>
     <row r="20" s="9" customFormat="1" ht="30.95" customHeight="1" spans="1:9">
       <c r="A20" s="34">
@@ -3228,18 +3237,18 @@
         <v>26</v>
       </c>
       <c r="E20" s="39" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F20" s="56" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G20" s="34"/>
       <c r="H20" s="36"/>
-      <c r="I20" s="49"/>
+      <c r="I20" s="50"/>
     </row>
     <row r="21" s="9" customFormat="1" ht="30.95" customHeight="1" spans="1:9">
       <c r="A21" s="34">
-        <f>ROW()-6</f>
+        <f t="shared" si="0"/>
         <v>15</v>
       </c>
       <c r="B21" s="31"/>
@@ -3248,18 +3257,18 @@
         <v>26</v>
       </c>
       <c r="E21" s="39" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F21" s="56" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G21" s="34"/>
       <c r="H21" s="36"/>
-      <c r="I21" s="49"/>
+      <c r="I21" s="50"/>
     </row>
     <row r="22" s="9" customFormat="1" ht="30.95" customHeight="1" spans="1:9">
       <c r="A22" s="34">
-        <f>ROW()-6</f>
+        <f t="shared" si="0"/>
         <v>16</v>
       </c>
       <c r="B22" s="31"/>
@@ -3270,11 +3279,11 @@
       <c r="E22" s="34" t="s">
         <v>32</v>
       </c>
-      <c r="F22" s="42" t="s">
-        <v>48</v>
+      <c r="F22" s="43" t="s">
+        <v>49</v>
       </c>
       <c r="G22" s="34"/>
-      <c r="I22" s="49"/>
+      <c r="I22" s="50"/>
     </row>
     <row r="23" s="9" customFormat="1" ht="30.95" customHeight="1" spans="1:9">
       <c r="A23" s="34">
@@ -3290,15 +3299,15 @@
         <v>32</v>
       </c>
       <c r="F23" s="56" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G23" s="34"/>
-      <c r="H23" s="53" t="s">
-        <v>50</v>
-      </c>
-      <c r="I23" s="49"/>
-    </row>
-    <row r="24" s="9" customFormat="1" ht="63" customHeight="1" spans="1:9">
+      <c r="H23" s="41" t="s">
+        <v>51</v>
+      </c>
+      <c r="I23" s="50"/>
+    </row>
+    <row r="24" s="9" customFormat="1" ht="48" customHeight="1" spans="1:9">
       <c r="A24" s="34">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -3312,13 +3321,13 @@
         <v>32</v>
       </c>
       <c r="F24" s="57" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G24" s="34"/>
-      <c r="H24" s="36" t="s">
-        <v>36</v>
-      </c>
-      <c r="I24" s="49"/>
+      <c r="H24" s="41" t="s">
+        <v>45</v>
+      </c>
+      <c r="I24" s="50"/>
     </row>
     <row r="25" s="9" customFormat="1" ht="63" customHeight="1" spans="1:9">
       <c r="A25" s="34">
@@ -3334,13 +3343,13 @@
         <v>32</v>
       </c>
       <c r="F25" s="57" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G25" s="34"/>
-      <c r="H25" s="36" t="s">
-        <v>36</v>
-      </c>
-      <c r="I25" s="49"/>
+      <c r="H25" s="41" t="s">
+        <v>45</v>
+      </c>
+      <c r="I25" s="50"/>
     </row>
     <row r="26" s="9" customFormat="1" ht="30.95" customHeight="1" spans="1:9">
       <c r="A26" s="34">
@@ -3350,12 +3359,12 @@
       <c r="B26" s="31"/>
       <c r="C26" s="34"/>
       <c r="D26" s="34" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E26" s="34"/>
-      <c r="F26" s="42"/>
+      <c r="F26" s="43"/>
       <c r="G26" s="34"/>
-      <c r="I26" s="49"/>
+      <c r="I26" s="50"/>
     </row>
     <row r="27" customFormat="1" ht="15" customHeight="1" spans="1:9">
       <c r="A27" s="34">
@@ -3371,8 +3380,8 @@
       <c r="F27" s="35" t="s">
         <v>41</v>
       </c>
-      <c r="G27" s="41"/>
-      <c r="H27" s="41"/>
+      <c r="G27" s="42"/>
+      <c r="H27" s="42"/>
       <c r="I27" s="11"/>
     </row>
     <row r="28" s="9" customFormat="1" ht="15.95" customHeight="1" spans="1:9">
@@ -3387,7 +3396,7 @@
       <c r="D28" s="34"/>
       <c r="E28" s="34"/>
       <c r="F28" s="35"/>
-      <c r="I28" s="49"/>
+      <c r="I28" s="50"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:J28">
@@ -3411,12 +3420,12 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1:J29"/>
+  <dimension ref="A1:J31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="F8" sqref="F8"/>
+      <selection pane="bottomLeft" activeCell="A24" sqref="$A24:$XFD24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.1" customHeight="1"/>
@@ -3426,7 +3435,7 @@
     <col min="3" max="3" width="10.125" style="11" customWidth="1"/>
     <col min="4" max="4" width="13.375" style="11" customWidth="1"/>
     <col min="5" max="5" width="28.25" style="12" customWidth="1"/>
-    <col min="6" max="6" width="34.75" style="11" customWidth="1"/>
+    <col min="6" max="6" width="39.125" style="11" customWidth="1"/>
     <col min="7" max="7" width="19" style="11" customWidth="1"/>
     <col min="8" max="8" width="37.25" style="11" customWidth="1"/>
     <col min="9" max="16384" width="9" style="11"/>
@@ -3461,26 +3470,42 @@
       <c r="B2" s="14"/>
       <c r="C2" s="14"/>
       <c r="D2" s="18" t="str">
-        <f ca="1">INDEX($D$5:$D$894,CELL("row")-4)</f>
-        <v>移除角色</v>
-      </c>
-      <c r="E2" s="19" t="e">
+        <f ca="1">INDEX($D$5:$D$896,CELL("row")-4)</f>
+        <v>角色台词</v>
+      </c>
+      <c r="E2" s="19" t="str">
         <f ca="1">IF(VLOOKUP($D$2,INDIRECT(J2),2,)&lt;&gt;0,VLOOKUP($D$2,INDIRECT(J2),2,),"")</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F2" s="20" t="e">
+        <v>npc_meiluni
+【行为主体，NPC别名，在角色表中配置】</v>
+      </c>
+      <c r="F2" s="20" t="str">
         <f ca="1">IF(VLOOKUP($D$2,INDIRECT(J2),3,)&lt;&gt;0,VLOOKUP($D$2,INDIRECT(J2),3,),"")</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G2" s="20" t="e">
+        <v>啊，{talk,,102102}{s=0.5}{1.0}节日的{suspend=1}一天！{角色动作,,1002}{角色表情,,10040;20030}{镜头切换,1}终于可以&lt;color=red&gt;休息&lt;/color&gt;了啊！{镜头移动,2,1}{autoend}
+【talk代表说话的口型，ID在编辑器animator中配置。这个命令跟外部写法“角色说话”不同】
+【命令用{}括起】
+【sleep代表停顿，可不填，文本播放在此停顿n秒后继续播放】
+【color代表颜色，可以写英文可以写色号，文字样式改变的命令还有&lt;b&gt;&lt;/b&gt;粗体，&lt;i&gt;&lt;/i&gt;斜体，&lt;size=60&gt;&lt;/size&gt;字号，】
+【shake代表抖动，1=文字框抖动，2=摄像机抖动，3=二者一起抖动】
+【s代表文字速度，原speed，数值越小越快】
+【suspend代表停顿，需要玩家手动点击文本才会继续播放下去，在同一个句子中出现多处停顿时，suspend后的数值要依次+1】
+【autoend代表自动结束，加在文字最后可实现不需要点击就自动执行后面action】
+【voice代表本句打字机使用的声音，填写mobi_client\mobi_client\Assets\Resources\avg\audios路径下的文件名字。可不填写，使用AVG人物表种填写的文件名，如单句不想播放声音，需在添加voice=none，不需要填写后缀名，填写格式,例voice=voice_didi_man_2】
+【&amp;XXX】词条简易配置方式{&amp;涂凌}
+【#XXX】文本宏简易配置方式</v>
+      </c>
+      <c r="G2" s="20" t="str">
         <f ca="1">IF(VLOOKUP($D$2,INDIRECT(J2),4,)&lt;&gt;0,VLOOKUP($D$2,INDIRECT(J2),4,),"")</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H2" s="20" t="e">
+        <v>rui_01
+【语音文件的名字】</v>
+      </c>
+      <c r="H2" s="20" t="str">
         <f ca="1">IF(VLOOKUP($D$2,INDIRECT(J2),5,)&lt;&gt;0,VLOOKUP($D$2,INDIRECT(J2),5,),"")</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J2" s="48" t="s">
+        <v>type=2,offx=1.5,offy=-0.4,bubbleStyle=2,bubbleFlipX=1
+recall=1,scale=1.3,rotate=30
+【recall代表文字居中，默认是左对齐】
+【type代表文字框类型，可不填，则默认是0。1=电影字幕，2=泡泡框，3=推理对话。在类型是2的情况下，bubbleStyle代表泡泡类型，1=云朵形；2=锯齿形；3=普通形，X代表X轴偏移，Y代表Y轴偏移，正坐标系，BubbleFlipX代表镜像，scale代表底板的缩放，默认是1,,rotate旋转角度默认0】</v>
+      </c>
+      <c r="J2" s="49" t="s">
         <v>6</v>
       </c>
     </row>
@@ -3564,7 +3589,7 @@
     </row>
     <row r="6" s="8" customFormat="1" ht="21" customHeight="1" spans="1:8">
       <c r="A6" s="30">
-        <f t="shared" ref="A6:A22" si="0">ROW()-6</f>
+        <f t="shared" ref="A6:A24" si="0">ROW()-6</f>
         <v>0</v>
       </c>
       <c r="B6" s="31" t="s">
@@ -3595,7 +3620,7 @@
       </c>
       <c r="G7" s="34"/>
       <c r="H7" s="36"/>
-      <c r="I7" s="49"/>
+      <c r="I7" s="50"/>
     </row>
     <row r="8" s="9" customFormat="1" ht="15.95" customHeight="1" spans="1:9">
       <c r="A8" s="34">
@@ -3615,9 +3640,9 @@
       </c>
       <c r="G8" s="34"/>
       <c r="H8" s="38" t="s">
-        <v>54</v>
-      </c>
-      <c r="I8" s="49"/>
+        <v>55</v>
+      </c>
+      <c r="I8" s="50"/>
     </row>
     <row r="9" s="9" customFormat="1" ht="30" customHeight="1" spans="1:9">
       <c r="A9" s="30">
@@ -3630,14 +3655,14 @@
         <v>26</v>
       </c>
       <c r="E9" s="39" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F9" s="40" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="G9" s="34"/>
       <c r="H9" s="36"/>
-      <c r="I9" s="49"/>
+      <c r="I9" s="50"/>
     </row>
     <row r="10" s="9" customFormat="1" ht="30.95" customHeight="1" spans="1:9">
       <c r="A10" s="34">
@@ -3653,13 +3678,13 @@
         <v>32</v>
       </c>
       <c r="F10" s="40" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="G10" s="34"/>
-      <c r="H10" s="36" t="s">
-        <v>36</v>
-      </c>
-      <c r="I10" s="49"/>
+      <c r="H10" s="41" t="s">
+        <v>45</v>
+      </c>
+      <c r="I10" s="50"/>
     </row>
     <row r="11" s="9" customFormat="1" ht="30.95" customHeight="1" spans="1:9">
       <c r="A11" s="34">
@@ -3672,14 +3697,14 @@
         <v>26</v>
       </c>
       <c r="E11" s="39" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F11" s="40" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G11" s="34"/>
       <c r="H11" s="36"/>
-      <c r="I11" s="49"/>
+      <c r="I11" s="50"/>
     </row>
     <row r="12" s="9" customFormat="1" ht="12" spans="1:9">
       <c r="A12" s="30">
@@ -3689,17 +3714,17 @@
       <c r="B12" s="31"/>
       <c r="C12" s="34"/>
       <c r="D12" s="34" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E12" s="34" t="s">
         <v>32</v>
       </c>
       <c r="F12" s="35" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G12" s="34"/>
       <c r="H12" s="36"/>
-      <c r="I12" s="49"/>
+      <c r="I12" s="50"/>
     </row>
     <row r="13" s="9" customFormat="1" ht="29.1" customHeight="1" spans="1:9">
       <c r="A13" s="30">
@@ -3711,7 +3736,7 @@
         <v>1</v>
       </c>
       <c r="D13" s="34" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E13" s="34">
         <v>1</v>
@@ -3719,7 +3744,7 @@
       <c r="F13" s="35"/>
       <c r="G13" s="34"/>
       <c r="H13" s="36"/>
-      <c r="I13" s="49"/>
+      <c r="I13" s="50"/>
     </row>
     <row r="14" s="9" customFormat="1" ht="29.1" customHeight="1" spans="1:9">
       <c r="A14" s="30">
@@ -3734,12 +3759,12 @@
         <v>1</v>
       </c>
       <c r="E14" s="34" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F14" s="35"/>
       <c r="G14" s="34"/>
       <c r="H14" s="36"/>
-      <c r="I14" s="49"/>
+      <c r="I14" s="50"/>
     </row>
     <row r="15" customFormat="1" ht="15" customHeight="1" spans="1:9">
       <c r="A15" s="34">
@@ -3755,8 +3780,8 @@
       <c r="F15" s="35" t="s">
         <v>41</v>
       </c>
-      <c r="G15" s="41"/>
-      <c r="H15" s="41"/>
+      <c r="G15" s="42"/>
+      <c r="H15" s="42"/>
       <c r="I15" s="11"/>
     </row>
     <row r="16" customFormat="1" ht="15" customHeight="1" spans="1:9">
@@ -3765,14 +3790,14 @@
         <v>10</v>
       </c>
       <c r="B16" s="31" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C16" s="34"/>
       <c r="D16" s="34"/>
       <c r="E16" s="34"/>
       <c r="F16" s="35"/>
-      <c r="G16" s="41"/>
-      <c r="H16" s="41"/>
+      <c r="G16" s="42"/>
+      <c r="H16" s="42"/>
       <c r="I16" s="11"/>
     </row>
     <row r="17" s="9" customFormat="1" ht="15.95" customHeight="1" spans="1:9">
@@ -3793,9 +3818,9 @@
       </c>
       <c r="G17" s="34"/>
       <c r="H17" s="36"/>
-      <c r="I17" s="49"/>
-    </row>
-    <row r="18" s="9" customFormat="1" ht="30" customHeight="1" spans="1:9">
+      <c r="I17" s="50"/>
+    </row>
+    <row r="18" s="9" customFormat="1" ht="32" customHeight="1" spans="1:9">
       <c r="A18" s="30">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -3806,16 +3831,16 @@
         <v>26</v>
       </c>
       <c r="E18" s="39" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F18" s="40" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="G18" s="34"/>
       <c r="H18" s="36"/>
-      <c r="I18" s="49"/>
-    </row>
-    <row r="19" s="9" customFormat="1" ht="15.95" customHeight="1" spans="1:9">
+      <c r="I18" s="50"/>
+    </row>
+    <row r="19" s="9" customFormat="1" ht="32" customHeight="1" spans="1:9">
       <c r="A19" s="34">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -3835,9 +3860,9 @@
       <c r="H19" s="38" t="s">
         <v>34</v>
       </c>
-      <c r="I19" s="49"/>
-    </row>
-    <row r="20" s="9" customFormat="1" ht="30.95" customHeight="1" spans="1:9">
+      <c r="I19" s="50"/>
+    </row>
+    <row r="20" s="9" customFormat="1" ht="32" customHeight="1" spans="1:9">
       <c r="A20" s="34">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -3850,13 +3875,13 @@
       <c r="E20" s="34" t="s">
         <v>32</v>
       </c>
-      <c r="F20" s="42" t="s">
-        <v>48</v>
+      <c r="F20" s="43" t="s">
+        <v>49</v>
       </c>
       <c r="G20" s="34"/>
-      <c r="I20" s="49"/>
-    </row>
-    <row r="21" s="9" customFormat="1" ht="27" spans="1:9">
+      <c r="I20" s="50"/>
+    </row>
+    <row r="21" s="9" customFormat="1" ht="44" customHeight="1" spans="1:9">
       <c r="A21" s="34">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -3870,15 +3895,15 @@
         <v>32</v>
       </c>
       <c r="F21" s="40" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="G21" s="34"/>
-      <c r="H21" s="36" t="s">
-        <v>36</v>
-      </c>
-      <c r="I21" s="49"/>
-    </row>
-    <row r="22" s="9" customFormat="1" ht="27" spans="1:9">
+      <c r="H21" s="41" t="s">
+        <v>45</v>
+      </c>
+      <c r="I21" s="50"/>
+    </row>
+    <row r="22" s="9" customFormat="1" ht="44" customHeight="1" spans="1:9">
       <c r="A22" s="34">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -3892,100 +3917,106 @@
         <v>32</v>
       </c>
       <c r="F22" s="40" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="G22" s="34"/>
-      <c r="H22" s="36" t="s">
-        <v>36</v>
-      </c>
-      <c r="I22" s="49"/>
-    </row>
-    <row r="23" s="9" customFormat="1" ht="29.1" customHeight="1" spans="1:9">
-      <c r="A23" s="30">
-        <f t="shared" ref="A23:A29" si="1">ROW()-6</f>
+      <c r="H22" s="41" t="s">
+        <v>45</v>
+      </c>
+      <c r="I22" s="50"/>
+    </row>
+    <row r="23" s="9" customFormat="1" ht="32" customHeight="1" spans="1:9">
+      <c r="A23" s="34">
+        <f t="shared" si="0"/>
         <v>17</v>
       </c>
       <c r="B23" s="31"/>
       <c r="C23" s="34"/>
-      <c r="D23" s="34" t="s">
-        <v>53</v>
-      </c>
-      <c r="E23" s="34"/>
-      <c r="F23" s="35"/>
+      <c r="D23" t="s">
+        <v>26</v>
+      </c>
+      <c r="E23" t="s">
+        <v>32</v>
+      </c>
+      <c r="F23" s="40" t="s">
+        <v>67</v>
+      </c>
       <c r="G23" s="34"/>
-      <c r="H23" s="36"/>
-      <c r="I23" s="49"/>
-    </row>
-    <row r="24" s="10" customFormat="1" ht="29.1" customHeight="1" spans="1:9">
-      <c r="A24" s="43">
-        <f t="shared" si="1"/>
+      <c r="H23" s="41" t="s">
+        <v>45</v>
+      </c>
+      <c r="I23" s="50"/>
+    </row>
+    <row r="24" s="9" customFormat="1" ht="30" customHeight="1" spans="1:9">
+      <c r="A24" s="34">
+        <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="B24" s="44"/>
-      <c r="C24" s="45">
-        <v>1</v>
-      </c>
-      <c r="D24" s="45" t="s">
+      <c r="B24" s="31"/>
+      <c r="C24" s="34"/>
+      <c r="D24" t="s">
         <v>26</v>
       </c>
-      <c r="E24" s="45"/>
-      <c r="F24" s="46" t="s">
-        <v>66</v>
-      </c>
-      <c r="G24" s="45"/>
-      <c r="H24" s="47"/>
+      <c r="E24" t="s">
+        <v>32</v>
+      </c>
+      <c r="F24" s="40" t="s">
+        <v>68</v>
+      </c>
+      <c r="G24" s="34"/>
+      <c r="H24" s="41" t="s">
+        <v>45</v>
+      </c>
       <c r="I24" s="50"/>
     </row>
-    <row r="25" s="8" customFormat="1" ht="21" customHeight="1" spans="1:8">
+    <row r="25" s="9" customFormat="1" ht="29.1" customHeight="1" spans="1:9">
       <c r="A25" s="30">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="A25:A31" si="1">ROW()-6</f>
         <v>19</v>
       </c>
       <c r="B25" s="31"/>
-      <c r="C25" s="32"/>
-      <c r="D25" s="33" t="s">
-        <v>22</v>
-      </c>
-      <c r="E25" s="33" t="s">
-        <v>23</v>
-      </c>
-      <c r="F25" s="33">
-        <v>1</v>
-      </c>
-      <c r="G25" s="32"/>
-      <c r="H25" s="32"/>
-    </row>
-    <row r="26" s="8" customFormat="1" ht="21" customHeight="1" spans="1:8">
-      <c r="A26" s="30">
+      <c r="C25" s="34"/>
+      <c r="D25" s="34" t="s">
+        <v>54</v>
+      </c>
+      <c r="E25" s="34"/>
+      <c r="F25" s="35"/>
+      <c r="G25" s="34"/>
+      <c r="H25" s="36"/>
+      <c r="I25" s="50"/>
+    </row>
+    <row r="26" s="10" customFormat="1" ht="29.1" customHeight="1" spans="1:9">
+      <c r="A26" s="44">
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
-      <c r="B26" s="32"/>
-      <c r="C26" s="32"/>
-      <c r="D26" s="33" t="s">
-        <v>22</v>
-      </c>
-      <c r="E26" s="33" t="s">
-        <v>24</v>
-      </c>
-      <c r="F26" s="33">
+      <c r="B26" s="45"/>
+      <c r="C26" s="46">
         <v>1</v>
       </c>
-      <c r="G26" s="32"/>
-      <c r="H26" s="32"/>
+      <c r="D26" s="46" t="s">
+        <v>26</v>
+      </c>
+      <c r="E26" s="46"/>
+      <c r="F26" s="47" t="s">
+        <v>69</v>
+      </c>
+      <c r="G26" s="46"/>
+      <c r="H26" s="48"/>
+      <c r="I26" s="51"/>
     </row>
     <row r="27" s="8" customFormat="1" ht="21" customHeight="1" spans="1:8">
       <c r="A27" s="30">
         <f t="shared" si="1"/>
         <v>21</v>
       </c>
-      <c r="B27" s="32"/>
+      <c r="B27" s="31"/>
       <c r="C27" s="32"/>
       <c r="D27" s="33" t="s">
         <v>22</v>
       </c>
       <c r="E27" s="33" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F27" s="33">
         <v>1</v>
@@ -3993,44 +4024,82 @@
       <c r="G27" s="32"/>
       <c r="H27" s="32"/>
     </row>
-    <row r="28" customFormat="1" ht="15" customHeight="1" spans="1:9">
-      <c r="A28" s="34">
+    <row r="28" s="8" customFormat="1" ht="21" customHeight="1" spans="1:8">
+      <c r="A28" s="30">
         <f t="shared" si="1"/>
         <v>22</v>
       </c>
-      <c r="B28" s="31"/>
-      <c r="C28" s="34"/>
-      <c r="D28" s="34" t="s">
-        <v>40</v>
-      </c>
-      <c r="E28" s="34"/>
-      <c r="F28" s="35" t="s">
-        <v>41</v>
-      </c>
-      <c r="G28" s="41"/>
-      <c r="H28" s="41"/>
-      <c r="I28" s="11"/>
-    </row>
-    <row r="29" s="9" customFormat="1" ht="15.95" customHeight="1" spans="1:9">
+      <c r="B28" s="32"/>
+      <c r="C28" s="32"/>
+      <c r="D28" s="33" t="s">
+        <v>22</v>
+      </c>
+      <c r="E28" s="33" t="s">
+        <v>24</v>
+      </c>
+      <c r="F28" s="33">
+        <v>1</v>
+      </c>
+      <c r="G28" s="32"/>
+      <c r="H28" s="32"/>
+    </row>
+    <row r="29" s="8" customFormat="1" ht="21" customHeight="1" spans="1:8">
       <c r="A29" s="30">
         <f t="shared" si="1"/>
         <v>23</v>
       </c>
-      <c r="B29" s="31" t="s">
+      <c r="B29" s="32"/>
+      <c r="C29" s="32"/>
+      <c r="D29" s="33" t="s">
+        <v>22</v>
+      </c>
+      <c r="E29" s="33" t="s">
+        <v>25</v>
+      </c>
+      <c r="F29" s="33">
+        <v>1</v>
+      </c>
+      <c r="G29" s="32"/>
+      <c r="H29" s="32"/>
+    </row>
+    <row r="30" customFormat="1" ht="15" customHeight="1" spans="1:9">
+      <c r="A30" s="34">
+        <f t="shared" si="1"/>
+        <v>24</v>
+      </c>
+      <c r="B30" s="31"/>
+      <c r="C30" s="34"/>
+      <c r="D30" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="E30" s="34"/>
+      <c r="F30" s="35" t="s">
         <v>41</v>
       </c>
-      <c r="C29" s="34"/>
-      <c r="D29" s="34"/>
-      <c r="E29" s="34"/>
-      <c r="F29" s="35"/>
-      <c r="I29" s="49"/>
+      <c r="G30" s="42"/>
+      <c r="H30" s="42"/>
+      <c r="I30" s="11"/>
+    </row>
+    <row r="31" s="9" customFormat="1" ht="15.95" customHeight="1" spans="1:9">
+      <c r="A31" s="30">
+        <f t="shared" si="1"/>
+        <v>25</v>
+      </c>
+      <c r="B31" s="31" t="s">
+        <v>41</v>
+      </c>
+      <c r="C31" s="34"/>
+      <c r="D31" s="34"/>
+      <c r="E31" s="34"/>
+      <c r="F31" s="35"/>
+      <c r="I31" s="50"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:J29">
+  <autoFilter ref="A1:J31">
     <extLst/>
   </autoFilter>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D15 D16 D28">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D15 D16 D30">
       <formula1>[1]辅助表!#REF!</formula1>
     </dataValidation>
   </dataValidations>
@@ -4071,10 +4140,10 @@
   <sheetData>
     <row r="1" spans="1:39">
       <c r="A1" s="4" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>6</v>
@@ -4142,10 +4211,10 @@
     </row>
     <row r="2" spans="1:39">
       <c r="A2" s="4" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="AA2" s="2" t="str">
         <f>IF([2]AVG指令文档!D5&lt;&gt;0,[2]AVG指令文档!D5,"")</f>
@@ -4202,7 +4271,7 @@
     </row>
     <row r="3" spans="1:39">
       <c r="A3" s="4" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B3" s="5">
         <v>4</v>

--- a/mobi_client/mobi_client/mobi_config/excel/AVGScripts/后续引导AVG/战斗引导_主线序章1.xlsx
+++ b/mobi_client/mobi_client/mobi_config/excel/AVGScripts/后续引导AVG/战斗引导_主线序章1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="13890" activeTab="1"/>
+    <workbookView windowWidth="28125" windowHeight="11970"/>
   </bookViews>
   <sheets>
     <sheet name="Intro_C0_battle01" sheetId="12" r:id="rId1"/>
@@ -16,8 +16,8 @@
     <externalReference r:id="rId5"/>
   </externalReferences>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Intro_C0_battle01!$A$1:$J$28</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Intro_C0_battle01_2!$A$1:$J$31</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Intro_C0_battle01!$A$1:$J$34</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Intro_C0_battle01_2!$A$1:$J$40</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
@@ -138,7 +138,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="74">
   <si>
     <t>说明</t>
   </si>
@@ -248,7 +248,7 @@
     <t>确定为二级危险系数!</t>
   </si>
   <si>
-    <t>type=0</t>
+    <t>name=鲨鱼服少女</t>
   </si>
   <si>
     <t>调取&lt;z=yellow&gt;『1-198电桩少女』&lt;/z&gt;!</t>
@@ -273,9 +273,6 @@
   </si>
   <si>
     <t>涂凌_待机_上脸_开始_01;涂凌_待机_下嘴_开始_01</t>
-  </si>
-  <si>
-    <t>name=鲨鱼服少女</t>
   </si>
   <si>
     <t>wo</t>
@@ -619,12 +616,12 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
-      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -2773,12 +2770,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:P28"/>
+  <dimension ref="A1:P34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="H25" sqref="H25"/>
+      <selection pane="bottomLeft" activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.1" customHeight="1"/>
@@ -2823,7 +2820,7 @@
       <c r="B2" s="14"/>
       <c r="C2" s="14"/>
       <c r="D2" s="18" t="str">
-        <f ca="1">INDEX($D$5:$D$893,CELL("row")-4)</f>
+        <f ca="1">INDEX($D$5:$D$899,CELL("row")-4)</f>
         <v>角色台词</v>
       </c>
       <c r="E2" s="19" t="str">
@@ -2942,7 +2939,7 @@
     </row>
     <row r="6" s="8" customFormat="1" ht="21" customHeight="1" spans="1:8">
       <c r="A6" s="30">
-        <f t="shared" ref="A6:A28" si="0">ROW()-6</f>
+        <f t="shared" ref="A6:A19" si="0">ROW()-6</f>
         <v>0</v>
       </c>
       <c r="B6" s="31" t="s">
@@ -3077,7 +3074,7 @@
         <v>35</v>
       </c>
       <c r="G12" s="34"/>
-      <c r="H12" s="36" t="s">
+      <c r="H12" s="41" t="s">
         <v>36</v>
       </c>
       <c r="I12" s="50"/>
@@ -3099,7 +3096,7 @@
         <v>37</v>
       </c>
       <c r="G13" s="34"/>
-      <c r="H13" s="36" t="s">
+      <c r="H13" s="41" t="s">
         <v>36</v>
       </c>
       <c r="I13" s="50"/>
@@ -3162,113 +3159,110 @@
       <c r="H16" s="36"/>
       <c r="I16" s="50"/>
     </row>
-    <row r="17" s="9" customFormat="1" ht="15.95" customHeight="1" spans="1:9">
+    <row r="17" s="8" customFormat="1" ht="21" customHeight="1" spans="1:8">
       <c r="A17" s="30">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="B17" s="31"/>
-      <c r="C17" s="34"/>
-      <c r="D17" s="34" t="s">
-        <v>28</v>
-      </c>
-      <c r="E17" s="34" t="s">
-        <v>29</v>
-      </c>
-      <c r="F17" s="35" t="s">
-        <v>30</v>
-      </c>
-      <c r="G17" s="34"/>
-      <c r="H17" s="36"/>
-      <c r="I17" s="50"/>
-    </row>
-    <row r="18" s="9" customFormat="1" ht="15.95" customHeight="1" spans="1:9">
-      <c r="A18" s="34">
+      <c r="B17" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="C17" s="32"/>
+      <c r="D17" s="33" t="s">
+        <v>22</v>
+      </c>
+      <c r="E17" s="33" t="s">
+        <v>23</v>
+      </c>
+      <c r="F17" s="33">
+        <v>0</v>
+      </c>
+      <c r="G17" s="32"/>
+      <c r="H17" s="32"/>
+    </row>
+    <row r="18" s="8" customFormat="1" ht="21" customHeight="1" spans="1:8">
+      <c r="A18" s="30">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="B18" s="31"/>
-      <c r="C18" s="34"/>
-      <c r="D18" t="s">
-        <v>31</v>
-      </c>
-      <c r="E18" t="s">
-        <v>32</v>
-      </c>
-      <c r="F18" s="37" t="s">
-        <v>33</v>
-      </c>
-      <c r="G18" s="34"/>
-      <c r="H18" s="38" t="s">
-        <v>34</v>
-      </c>
-      <c r="I18" s="50"/>
-    </row>
-    <row r="19" s="9" customFormat="1" ht="30.95" customHeight="1" spans="1:9">
-      <c r="A19" s="34">
+      <c r="B18" s="32"/>
+      <c r="C18" s="32"/>
+      <c r="D18" s="33" t="s">
+        <v>22</v>
+      </c>
+      <c r="E18" s="33" t="s">
+        <v>24</v>
+      </c>
+      <c r="F18" s="33">
+        <v>0</v>
+      </c>
+      <c r="G18" s="32"/>
+      <c r="H18" s="32"/>
+    </row>
+    <row r="19" s="8" customFormat="1" ht="21" customHeight="1" spans="1:8">
+      <c r="A19" s="30">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="B19" s="31"/>
-      <c r="C19" s="34"/>
-      <c r="D19" s="34" t="s">
-        <v>43</v>
-      </c>
-      <c r="E19" s="34" t="s">
-        <v>32</v>
-      </c>
-      <c r="F19" s="43" t="s">
-        <v>44</v>
-      </c>
-      <c r="G19" s="34"/>
-      <c r="H19" s="41" t="s">
-        <v>45</v>
-      </c>
-      <c r="I19" s="50"/>
-    </row>
-    <row r="20" s="9" customFormat="1" ht="30.95" customHeight="1" spans="1:9">
-      <c r="A20" s="34">
-        <f t="shared" si="0"/>
+      <c r="B19" s="32"/>
+      <c r="C19" s="32"/>
+      <c r="D19" s="33" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19" s="33" t="s">
+        <v>25</v>
+      </c>
+      <c r="F19" s="33">
+        <v>0</v>
+      </c>
+      <c r="G19" s="32"/>
+      <c r="H19" s="32"/>
+    </row>
+    <row r="20" s="9" customFormat="1" ht="15.95" customHeight="1" spans="1:9">
+      <c r="A20" s="30">
+        <f t="shared" ref="A20:A34" si="1">ROW()-6</f>
         <v>14</v>
       </c>
       <c r="B20" s="31"/>
       <c r="C20" s="34"/>
-      <c r="D20" t="s">
-        <v>26</v>
-      </c>
-      <c r="E20" s="39" t="s">
-        <v>46</v>
-      </c>
-      <c r="F20" s="56" t="s">
-        <v>47</v>
+      <c r="D20" s="34" t="s">
+        <v>28</v>
+      </c>
+      <c r="E20" s="34" t="s">
+        <v>29</v>
+      </c>
+      <c r="F20" s="35" t="s">
+        <v>30</v>
       </c>
       <c r="G20" s="34"/>
       <c r="H20" s="36"/>
       <c r="I20" s="50"/>
     </row>
-    <row r="21" s="9" customFormat="1" ht="30.95" customHeight="1" spans="1:9">
+    <row r="21" s="9" customFormat="1" ht="15.95" customHeight="1" spans="1:9">
       <c r="A21" s="34">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>15</v>
       </c>
       <c r="B21" s="31"/>
       <c r="C21" s="34"/>
       <c r="D21" t="s">
-        <v>26</v>
-      </c>
-      <c r="E21" s="39" t="s">
-        <v>46</v>
-      </c>
-      <c r="F21" s="56" t="s">
-        <v>48</v>
+        <v>31</v>
+      </c>
+      <c r="E21" t="s">
+        <v>32</v>
+      </c>
+      <c r="F21" s="37" t="s">
+        <v>33</v>
       </c>
       <c r="G21" s="34"/>
-      <c r="H21" s="36"/>
+      <c r="H21" s="38" t="s">
+        <v>34</v>
+      </c>
       <c r="I21" s="50"/>
     </row>
     <row r="22" s="9" customFormat="1" ht="30.95" customHeight="1" spans="1:9">
       <c r="A22" s="34">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>16</v>
       </c>
       <c r="B22" s="31"/>
@@ -3280,14 +3274,17 @@
         <v>32</v>
       </c>
       <c r="F22" s="43" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="G22" s="34"/>
+      <c r="H22" s="41" t="s">
+        <v>36</v>
+      </c>
       <c r="I22" s="50"/>
     </row>
     <row r="23" s="9" customFormat="1" ht="30.95" customHeight="1" spans="1:9">
       <c r="A23" s="34">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>17</v>
       </c>
       <c r="B23" s="31"/>
@@ -3295,118 +3292,234 @@
       <c r="D23" t="s">
         <v>26</v>
       </c>
-      <c r="E23" s="34" t="s">
-        <v>32</v>
+      <c r="E23" s="39" t="s">
+        <v>45</v>
       </c>
       <c r="F23" s="56" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="G23" s="34"/>
-      <c r="H23" s="41" t="s">
-        <v>51</v>
-      </c>
+      <c r="H23" s="36"/>
       <c r="I23" s="50"/>
     </row>
-    <row r="24" s="9" customFormat="1" ht="48" customHeight="1" spans="1:9">
+    <row r="24" s="9" customFormat="1" ht="30.95" customHeight="1" spans="1:9">
       <c r="A24" s="34">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>18</v>
       </c>
       <c r="B24" s="31"/>
       <c r="C24" s="34"/>
-      <c r="D24" s="34" t="s">
+      <c r="D24" t="s">
         <v>26</v>
       </c>
-      <c r="E24" s="34" t="s">
-        <v>32</v>
-      </c>
-      <c r="F24" s="57" t="s">
-        <v>52</v>
+      <c r="E24" s="39" t="s">
+        <v>45</v>
+      </c>
+      <c r="F24" s="56" t="s">
+        <v>47</v>
       </c>
       <c r="G24" s="34"/>
-      <c r="H24" s="41" t="s">
-        <v>45</v>
-      </c>
+      <c r="H24" s="36"/>
       <c r="I24" s="50"/>
     </row>
-    <row r="25" s="9" customFormat="1" ht="63" customHeight="1" spans="1:9">
+    <row r="25" s="9" customFormat="1" ht="30.95" customHeight="1" spans="1:9">
       <c r="A25" s="34">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>19</v>
       </c>
       <c r="B25" s="31"/>
       <c r="C25" s="34"/>
       <c r="D25" s="34" t="s">
-        <v>26</v>
+        <v>43</v>
       </c>
       <c r="E25" s="34" t="s">
         <v>32</v>
       </c>
-      <c r="F25" s="57" t="s">
-        <v>53</v>
+      <c r="F25" s="43" t="s">
+        <v>48</v>
       </c>
       <c r="G25" s="34"/>
-      <c r="H25" s="41" t="s">
-        <v>45</v>
-      </c>
       <c r="I25" s="50"/>
     </row>
     <row r="26" s="9" customFormat="1" ht="30.95" customHeight="1" spans="1:9">
       <c r="A26" s="34">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>20</v>
       </c>
       <c r="B26" s="31"/>
       <c r="C26" s="34"/>
-      <c r="D26" s="34" t="s">
-        <v>54</v>
-      </c>
-      <c r="E26" s="34"/>
-      <c r="F26" s="43"/>
+      <c r="D26" t="s">
+        <v>26</v>
+      </c>
+      <c r="E26" s="34" t="s">
+        <v>32</v>
+      </c>
+      <c r="F26" s="56" t="s">
+        <v>49</v>
+      </c>
       <c r="G26" s="34"/>
+      <c r="H26" s="41" t="s">
+        <v>50</v>
+      </c>
       <c r="I26" s="50"/>
     </row>
-    <row r="27" customFormat="1" ht="15" customHeight="1" spans="1:9">
+    <row r="27" s="9" customFormat="1" ht="48" customHeight="1" spans="1:9">
       <c r="A27" s="34">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>21</v>
       </c>
       <c r="B27" s="31"/>
       <c r="C27" s="34"/>
       <c r="D27" s="34" t="s">
+        <v>26</v>
+      </c>
+      <c r="E27" s="34" t="s">
+        <v>32</v>
+      </c>
+      <c r="F27" s="57" t="s">
+        <v>51</v>
+      </c>
+      <c r="G27" s="34"/>
+      <c r="H27" s="41" t="s">
+        <v>36</v>
+      </c>
+      <c r="I27" s="50"/>
+    </row>
+    <row r="28" s="9" customFormat="1" ht="63" customHeight="1" spans="1:9">
+      <c r="A28" s="34">
+        <f t="shared" si="1"/>
+        <v>22</v>
+      </c>
+      <c r="B28" s="31"/>
+      <c r="C28" s="34"/>
+      <c r="D28" s="34" t="s">
+        <v>26</v>
+      </c>
+      <c r="E28" s="34" t="s">
+        <v>32</v>
+      </c>
+      <c r="F28" s="57" t="s">
+        <v>52</v>
+      </c>
+      <c r="G28" s="34"/>
+      <c r="H28" s="41" t="s">
+        <v>36</v>
+      </c>
+      <c r="I28" s="50"/>
+    </row>
+    <row r="29" s="9" customFormat="1" ht="30.95" customHeight="1" spans="1:9">
+      <c r="A29" s="34">
+        <f t="shared" si="1"/>
+        <v>23</v>
+      </c>
+      <c r="B29" s="31"/>
+      <c r="C29" s="34"/>
+      <c r="D29" s="34" t="s">
+        <v>53</v>
+      </c>
+      <c r="E29" s="34"/>
+      <c r="F29" s="43"/>
+      <c r="G29" s="34"/>
+      <c r="I29" s="50"/>
+    </row>
+    <row r="30" s="8" customFormat="1" ht="21" customHeight="1" spans="1:8">
+      <c r="A30" s="30">
+        <f t="shared" si="1"/>
+        <v>24</v>
+      </c>
+      <c r="B30" s="31"/>
+      <c r="C30" s="32"/>
+      <c r="D30" s="33" t="s">
+        <v>22</v>
+      </c>
+      <c r="E30" s="33" t="s">
+        <v>23</v>
+      </c>
+      <c r="F30" s="33">
+        <v>1</v>
+      </c>
+      <c r="G30" s="32"/>
+      <c r="H30" s="32"/>
+    </row>
+    <row r="31" s="8" customFormat="1" ht="21" customHeight="1" spans="1:8">
+      <c r="A31" s="30">
+        <f t="shared" si="1"/>
+        <v>25</v>
+      </c>
+      <c r="B31" s="32"/>
+      <c r="C31" s="32"/>
+      <c r="D31" s="33" t="s">
+        <v>22</v>
+      </c>
+      <c r="E31" s="33" t="s">
+        <v>24</v>
+      </c>
+      <c r="F31" s="33">
+        <v>1</v>
+      </c>
+      <c r="G31" s="32"/>
+      <c r="H31" s="32"/>
+    </row>
+    <row r="32" s="8" customFormat="1" ht="21" customHeight="1" spans="1:8">
+      <c r="A32" s="30">
+        <f t="shared" si="1"/>
+        <v>26</v>
+      </c>
+      <c r="B32" s="32"/>
+      <c r="C32" s="32"/>
+      <c r="D32" s="33" t="s">
+        <v>22</v>
+      </c>
+      <c r="E32" s="33" t="s">
+        <v>25</v>
+      </c>
+      <c r="F32" s="33">
+        <v>1</v>
+      </c>
+      <c r="G32" s="32"/>
+      <c r="H32" s="32"/>
+    </row>
+    <row r="33" customFormat="1" ht="15" customHeight="1" spans="1:9">
+      <c r="A33" s="34">
+        <f t="shared" si="1"/>
+        <v>27</v>
+      </c>
+      <c r="B33" s="31"/>
+      <c r="C33" s="34"/>
+      <c r="D33" s="34" t="s">
         <v>40</v>
       </c>
-      <c r="E27" s="34"/>
-      <c r="F27" s="35" t="s">
+      <c r="E33" s="34"/>
+      <c r="F33" s="35" t="s">
         <v>41</v>
       </c>
-      <c r="G27" s="42"/>
-      <c r="H27" s="42"/>
-      <c r="I27" s="11"/>
-    </row>
-    <row r="28" s="9" customFormat="1" ht="15.95" customHeight="1" spans="1:9">
-      <c r="A28" s="30">
-        <f t="shared" si="0"/>
-        <v>22</v>
-      </c>
-      <c r="B28" s="31" t="s">
+      <c r="G33" s="42"/>
+      <c r="H33" s="42"/>
+      <c r="I33" s="11"/>
+    </row>
+    <row r="34" s="9" customFormat="1" ht="15.95" customHeight="1" spans="1:9">
+      <c r="A34" s="30">
+        <f t="shared" si="1"/>
+        <v>28</v>
+      </c>
+      <c r="B34" s="31" t="s">
         <v>41</v>
       </c>
-      <c r="C28" s="34"/>
-      <c r="D28" s="34"/>
-      <c r="E28" s="34"/>
-      <c r="F28" s="35"/>
-      <c r="I28" s="50"/>
+      <c r="C34" s="34"/>
+      <c r="D34" s="34"/>
+      <c r="E34" s="34"/>
+      <c r="F34" s="35"/>
+      <c r="I34" s="50"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:J28">
+  <autoFilter ref="A1:J34">
     <extLst/>
   </autoFilter>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D14">
       <formula1/>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D15 D27">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D15 D33">
       <formula1>[1]辅助表!#REF!</formula1>
     </dataValidation>
   </dataValidations>
@@ -3420,12 +3533,12 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1:J31"/>
+  <dimension ref="A1:J40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="A24" sqref="$A24:$XFD24"/>
+      <selection pane="bottomLeft" activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.1" customHeight="1"/>
@@ -3470,7 +3583,7 @@
       <c r="B2" s="14"/>
       <c r="C2" s="14"/>
       <c r="D2" s="18" t="str">
-        <f ca="1">INDEX($D$5:$D$896,CELL("row")-4)</f>
+        <f ca="1">INDEX($D$5:$D$905,CELL("row")-4)</f>
         <v>角色台词</v>
       </c>
       <c r="E2" s="19" t="str">
@@ -3589,7 +3702,7 @@
     </row>
     <row r="6" s="8" customFormat="1" ht="21" customHeight="1" spans="1:8">
       <c r="A6" s="30">
-        <f t="shared" ref="A6:A24" si="0">ROW()-6</f>
+        <f t="shared" ref="A6:A12" si="0">ROW()-6</f>
         <v>0</v>
       </c>
       <c r="B6" s="31" t="s">
@@ -3602,91 +3715,84 @@
       <c r="G6" s="32"/>
       <c r="H6" s="32"/>
     </row>
-    <row r="7" s="9" customFormat="1" ht="15.95" customHeight="1" spans="1:9">
+    <row r="7" s="8" customFormat="1" ht="21" customHeight="1" spans="1:8">
       <c r="A7" s="30">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="B7" s="31"/>
-      <c r="C7" s="34"/>
-      <c r="D7" s="34" t="s">
-        <v>28</v>
-      </c>
-      <c r="E7" s="34" t="s">
-        <v>29</v>
-      </c>
-      <c r="F7" s="35" t="s">
-        <v>30</v>
-      </c>
-      <c r="G7" s="34"/>
-      <c r="H7" s="36"/>
-      <c r="I7" s="50"/>
-    </row>
-    <row r="8" s="9" customFormat="1" ht="15.95" customHeight="1" spans="1:9">
-      <c r="A8" s="34">
+      <c r="C7" s="32"/>
+      <c r="D7" s="33" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7" s="33" t="s">
+        <v>23</v>
+      </c>
+      <c r="F7" s="33">
+        <v>0</v>
+      </c>
+      <c r="G7" s="32"/>
+      <c r="H7" s="32"/>
+    </row>
+    <row r="8" s="8" customFormat="1" ht="21" customHeight="1" spans="1:8">
+      <c r="A8" s="30">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="B8" s="31"/>
-      <c r="C8" s="34"/>
-      <c r="D8" t="s">
-        <v>31</v>
-      </c>
-      <c r="E8" t="s">
-        <v>32</v>
-      </c>
-      <c r="F8" s="37" t="s">
-        <v>33</v>
-      </c>
-      <c r="G8" s="34"/>
-      <c r="H8" s="38" t="s">
-        <v>55</v>
-      </c>
-      <c r="I8" s="50"/>
-    </row>
-    <row r="9" s="9" customFormat="1" ht="30" customHeight="1" spans="1:9">
+      <c r="B8" s="32"/>
+      <c r="C8" s="32"/>
+      <c r="D8" s="33" t="s">
+        <v>22</v>
+      </c>
+      <c r="E8" s="33" t="s">
+        <v>24</v>
+      </c>
+      <c r="F8" s="33">
+        <v>0</v>
+      </c>
+      <c r="G8" s="32"/>
+      <c r="H8" s="32"/>
+    </row>
+    <row r="9" s="8" customFormat="1" ht="21" customHeight="1" spans="1:8">
       <c r="A9" s="30">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="B9" s="31"/>
-      <c r="C9" s="34"/>
-      <c r="D9" s="34" t="s">
-        <v>26</v>
-      </c>
-      <c r="E9" s="39" t="s">
-        <v>46</v>
-      </c>
-      <c r="F9" s="40" t="s">
-        <v>56</v>
-      </c>
-      <c r="G9" s="34"/>
-      <c r="H9" s="36"/>
-      <c r="I9" s="50"/>
-    </row>
-    <row r="10" s="9" customFormat="1" ht="30.95" customHeight="1" spans="1:9">
-      <c r="A10" s="34">
+      <c r="B9" s="32"/>
+      <c r="C9" s="32"/>
+      <c r="D9" s="33" t="s">
+        <v>22</v>
+      </c>
+      <c r="E9" s="33" t="s">
+        <v>25</v>
+      </c>
+      <c r="F9" s="33">
+        <v>0</v>
+      </c>
+      <c r="G9" s="32"/>
+      <c r="H9" s="32"/>
+    </row>
+    <row r="10" s="9" customFormat="1" ht="15.95" customHeight="1" spans="1:9">
+      <c r="A10" s="30">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="B10" s="31"/>
       <c r="C10" s="34"/>
-      <c r="D10" t="s">
-        <v>26</v>
-      </c>
-      <c r="E10" t="s">
-        <v>32</v>
-      </c>
-      <c r="F10" s="40" t="s">
-        <v>57</v>
+      <c r="D10" s="34" t="s">
+        <v>28</v>
+      </c>
+      <c r="E10" s="34" t="s">
+        <v>29</v>
+      </c>
+      <c r="F10" s="35" t="s">
+        <v>30</v>
       </c>
       <c r="G10" s="34"/>
-      <c r="H10" s="41" t="s">
-        <v>45</v>
-      </c>
+      <c r="H10" s="36"/>
       <c r="I10" s="50"/>
     </row>
-    <row r="11" s="9" customFormat="1" ht="30.95" customHeight="1" spans="1:9">
+    <row r="11" s="9" customFormat="1" ht="15.95" customHeight="1" spans="1:9">
       <c r="A11" s="34">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -3694,19 +3800,21 @@
       <c r="B11" s="31"/>
       <c r="C11" s="34"/>
       <c r="D11" t="s">
-        <v>26</v>
-      </c>
-      <c r="E11" s="39" t="s">
-        <v>46</v>
-      </c>
-      <c r="F11" s="40" t="s">
-        <v>58</v>
+        <v>31</v>
+      </c>
+      <c r="E11" t="s">
+        <v>32</v>
+      </c>
+      <c r="F11" s="37" t="s">
+        <v>33</v>
       </c>
       <c r="G11" s="34"/>
-      <c r="H11" s="36"/>
+      <c r="H11" s="38" t="s">
+        <v>54</v>
+      </c>
       <c r="I11" s="50"/>
     </row>
-    <row r="12" s="9" customFormat="1" ht="12" spans="1:9">
+    <row r="12" s="9" customFormat="1" ht="30" customHeight="1" spans="1:9">
       <c r="A12" s="30">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -3714,392 +3822,568 @@
       <c r="B12" s="31"/>
       <c r="C12" s="34"/>
       <c r="D12" s="34" t="s">
-        <v>59</v>
-      </c>
-      <c r="E12" s="34" t="s">
-        <v>32</v>
-      </c>
-      <c r="F12" s="35" t="s">
-        <v>60</v>
+        <v>26</v>
+      </c>
+      <c r="E12" s="39" t="s">
+        <v>45</v>
+      </c>
+      <c r="F12" s="40" t="s">
+        <v>55</v>
       </c>
       <c r="G12" s="34"/>
       <c r="H12" s="36"/>
       <c r="I12" s="50"/>
     </row>
-    <row r="13" s="9" customFormat="1" ht="29.1" customHeight="1" spans="1:9">
-      <c r="A13" s="30">
-        <f t="shared" si="0"/>
+    <row r="13" s="9" customFormat="1" ht="30.95" customHeight="1" spans="1:9">
+      <c r="A13" s="34">
+        <f t="shared" ref="A13:A20" si="1">ROW()-6</f>
         <v>7</v>
       </c>
       <c r="B13" s="31"/>
-      <c r="C13" s="34">
-        <v>1</v>
-      </c>
-      <c r="D13" s="34" t="s">
-        <v>61</v>
-      </c>
-      <c r="E13" s="34">
-        <v>1</v>
-      </c>
-      <c r="F13" s="35"/>
+      <c r="C13" s="34"/>
+      <c r="D13" t="s">
+        <v>26</v>
+      </c>
+      <c r="E13" t="s">
+        <v>32</v>
+      </c>
+      <c r="F13" s="40" t="s">
+        <v>56</v>
+      </c>
       <c r="G13" s="34"/>
-      <c r="H13" s="36"/>
+      <c r="H13" s="41" t="s">
+        <v>36</v>
+      </c>
       <c r="I13" s="50"/>
     </row>
-    <row r="14" s="9" customFormat="1" ht="29.1" customHeight="1" spans="1:9">
-      <c r="A14" s="30">
-        <f t="shared" si="0"/>
+    <row r="14" s="9" customFormat="1" ht="30.95" customHeight="1" spans="1:9">
+      <c r="A14" s="34">
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
       <c r="B14" s="31"/>
-      <c r="C14" s="34">
-        <v>1</v>
-      </c>
-      <c r="D14" s="34" t="s">
-        <v>1</v>
-      </c>
-      <c r="E14" s="34" t="s">
-        <v>62</v>
-      </c>
-      <c r="F14" s="35"/>
+      <c r="C14" s="34"/>
+      <c r="D14" t="s">
+        <v>26</v>
+      </c>
+      <c r="E14" s="39" t="s">
+        <v>45</v>
+      </c>
+      <c r="F14" s="40" t="s">
+        <v>57</v>
+      </c>
       <c r="G14" s="34"/>
       <c r="H14" s="36"/>
       <c r="I14" s="50"/>
     </row>
-    <row r="15" customFormat="1" ht="15" customHeight="1" spans="1:9">
-      <c r="A15" s="34">
-        <f t="shared" si="0"/>
+    <row r="15" s="9" customFormat="1" ht="12" spans="1:9">
+      <c r="A15" s="30">
+        <f t="shared" si="1"/>
         <v>9</v>
       </c>
       <c r="B15" s="31"/>
       <c r="C15" s="34"/>
       <c r="D15" s="34" t="s">
-        <v>40</v>
-      </c>
-      <c r="E15" s="34"/>
+        <v>58</v>
+      </c>
+      <c r="E15" s="34" t="s">
+        <v>32</v>
+      </c>
       <c r="F15" s="35" t="s">
-        <v>41</v>
-      </c>
-      <c r="G15" s="42"/>
-      <c r="H15" s="42"/>
-      <c r="I15" s="11"/>
-    </row>
-    <row r="16" customFormat="1" ht="15" customHeight="1" spans="1:9">
-      <c r="A16" s="34">
-        <f t="shared" si="0"/>
+        <v>59</v>
+      </c>
+      <c r="G15" s="34"/>
+      <c r="H15" s="36"/>
+      <c r="I15" s="50"/>
+    </row>
+    <row r="16" s="9" customFormat="1" ht="29.1" customHeight="1" spans="1:9">
+      <c r="A16" s="30">
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="B16" s="31" t="s">
-        <v>63</v>
-      </c>
-      <c r="C16" s="34"/>
-      <c r="D16" s="34"/>
-      <c r="E16" s="34"/>
+      <c r="B16" s="31"/>
+      <c r="C16" s="34">
+        <v>1</v>
+      </c>
+      <c r="D16" s="34" t="s">
+        <v>60</v>
+      </c>
+      <c r="E16" s="34">
+        <v>1</v>
+      </c>
       <c r="F16" s="35"/>
-      <c r="G16" s="42"/>
-      <c r="H16" s="42"/>
-      <c r="I16" s="11"/>
-    </row>
-    <row r="17" s="9" customFormat="1" ht="15.95" customHeight="1" spans="1:9">
+      <c r="G16" s="34"/>
+      <c r="H16" s="36"/>
+      <c r="I16" s="50"/>
+    </row>
+    <row r="17" s="9" customFormat="1" ht="29.1" customHeight="1" spans="1:9">
       <c r="A17" s="30">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>11</v>
       </c>
       <c r="B17" s="31"/>
-      <c r="C17" s="34"/>
+      <c r="C17" s="34">
+        <v>1</v>
+      </c>
       <c r="D17" s="34" t="s">
-        <v>28</v>
+        <v>1</v>
       </c>
       <c r="E17" s="34" t="s">
-        <v>29</v>
-      </c>
-      <c r="F17" s="35" t="s">
-        <v>30</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="F17" s="35"/>
       <c r="G17" s="34"/>
       <c r="H17" s="36"/>
       <c r="I17" s="50"/>
     </row>
-    <row r="18" s="9" customFormat="1" ht="32" customHeight="1" spans="1:9">
+    <row r="18" s="8" customFormat="1" ht="21" customHeight="1" spans="1:8">
       <c r="A18" s="30">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>12</v>
       </c>
       <c r="B18" s="31"/>
-      <c r="C18" s="34"/>
-      <c r="D18" s="34" t="s">
-        <v>26</v>
-      </c>
-      <c r="E18" s="39" t="s">
-        <v>46</v>
-      </c>
-      <c r="F18" s="40" t="s">
-        <v>64</v>
-      </c>
-      <c r="G18" s="34"/>
-      <c r="H18" s="36"/>
-      <c r="I18" s="50"/>
-    </row>
-    <row r="19" s="9" customFormat="1" ht="32" customHeight="1" spans="1:9">
-      <c r="A19" s="34">
-        <f t="shared" si="0"/>
+      <c r="C18" s="32"/>
+      <c r="D18" s="33" t="s">
+        <v>22</v>
+      </c>
+      <c r="E18" s="33" t="s">
+        <v>23</v>
+      </c>
+      <c r="F18" s="33">
+        <v>1</v>
+      </c>
+      <c r="G18" s="32"/>
+      <c r="H18" s="32"/>
+    </row>
+    <row r="19" s="8" customFormat="1" ht="21" customHeight="1" spans="1:8">
+      <c r="A19" s="30">
+        <f t="shared" si="1"/>
         <v>13</v>
       </c>
-      <c r="B19" s="31"/>
-      <c r="C19" s="34"/>
-      <c r="D19" t="s">
-        <v>31</v>
-      </c>
-      <c r="E19" t="s">
-        <v>32</v>
-      </c>
-      <c r="F19" s="37" t="s">
-        <v>33</v>
-      </c>
-      <c r="G19" s="34"/>
-      <c r="H19" s="38" t="s">
-        <v>34</v>
-      </c>
-      <c r="I19" s="50"/>
-    </row>
-    <row r="20" s="9" customFormat="1" ht="32" customHeight="1" spans="1:9">
-      <c r="A20" s="34">
-        <f t="shared" si="0"/>
+      <c r="B19" s="32"/>
+      <c r="C19" s="32"/>
+      <c r="D19" s="33" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19" s="33" t="s">
+        <v>24</v>
+      </c>
+      <c r="F19" s="33">
+        <v>1</v>
+      </c>
+      <c r="G19" s="32"/>
+      <c r="H19" s="32"/>
+    </row>
+    <row r="20" s="8" customFormat="1" ht="21" customHeight="1" spans="1:8">
+      <c r="A20" s="30">
+        <f t="shared" si="1"/>
         <v>14</v>
       </c>
-      <c r="B20" s="31"/>
-      <c r="C20" s="34"/>
-      <c r="D20" s="34" t="s">
-        <v>43</v>
-      </c>
-      <c r="E20" s="34" t="s">
-        <v>32</v>
-      </c>
-      <c r="F20" s="43" t="s">
-        <v>49</v>
-      </c>
-      <c r="G20" s="34"/>
-      <c r="I20" s="50"/>
-    </row>
-    <row r="21" s="9" customFormat="1" ht="44" customHeight="1" spans="1:9">
+      <c r="B20" s="32"/>
+      <c r="C20" s="32"/>
+      <c r="D20" s="33" t="s">
+        <v>22</v>
+      </c>
+      <c r="E20" s="33" t="s">
+        <v>25</v>
+      </c>
+      <c r="F20" s="33">
+        <v>1</v>
+      </c>
+      <c r="G20" s="32"/>
+      <c r="H20" s="32"/>
+    </row>
+    <row r="21" customFormat="1" ht="15" customHeight="1" spans="1:9">
       <c r="A21" s="34">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="A21:A33" si="2">ROW()-6</f>
         <v>15</v>
       </c>
       <c r="B21" s="31"/>
       <c r="C21" s="34"/>
-      <c r="D21" t="s">
+      <c r="D21" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="E21" s="34"/>
+      <c r="F21" s="35" t="s">
+        <v>41</v>
+      </c>
+      <c r="G21" s="42"/>
+      <c r="H21" s="42"/>
+      <c r="I21" s="11"/>
+    </row>
+    <row r="22" customFormat="1" ht="15" customHeight="1" spans="1:9">
+      <c r="A22" s="34">
+        <f t="shared" si="2"/>
+        <v>16</v>
+      </c>
+      <c r="B22" s="31" t="s">
+        <v>62</v>
+      </c>
+      <c r="C22" s="34"/>
+      <c r="D22" s="34"/>
+      <c r="E22" s="34"/>
+      <c r="F22" s="35"/>
+      <c r="G22" s="42"/>
+      <c r="H22" s="42"/>
+      <c r="I22" s="11"/>
+    </row>
+    <row r="23" s="8" customFormat="1" ht="21" customHeight="1" spans="1:8">
+      <c r="A23" s="30">
+        <f t="shared" si="2"/>
+        <v>17</v>
+      </c>
+      <c r="B23" s="31"/>
+      <c r="C23" s="32"/>
+      <c r="D23" s="33" t="s">
+        <v>22</v>
+      </c>
+      <c r="E23" s="33" t="s">
+        <v>23</v>
+      </c>
+      <c r="F23" s="33">
+        <v>0</v>
+      </c>
+      <c r="G23" s="32"/>
+      <c r="H23" s="32"/>
+    </row>
+    <row r="24" s="8" customFormat="1" ht="21" customHeight="1" spans="1:8">
+      <c r="A24" s="30">
+        <f t="shared" si="2"/>
+        <v>18</v>
+      </c>
+      <c r="B24" s="32"/>
+      <c r="C24" s="32"/>
+      <c r="D24" s="33" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24" s="33" t="s">
+        <v>24</v>
+      </c>
+      <c r="F24" s="33">
+        <v>0</v>
+      </c>
+      <c r="G24" s="32"/>
+      <c r="H24" s="32"/>
+    </row>
+    <row r="25" s="8" customFormat="1" ht="21" customHeight="1" spans="1:8">
+      <c r="A25" s="30">
+        <f t="shared" si="2"/>
+        <v>19</v>
+      </c>
+      <c r="B25" s="32"/>
+      <c r="C25" s="32"/>
+      <c r="D25" s="33" t="s">
+        <v>22</v>
+      </c>
+      <c r="E25" s="33" t="s">
+        <v>25</v>
+      </c>
+      <c r="F25" s="33">
+        <v>0</v>
+      </c>
+      <c r="G25" s="32"/>
+      <c r="H25" s="32"/>
+    </row>
+    <row r="26" s="9" customFormat="1" ht="15.95" customHeight="1" spans="1:9">
+      <c r="A26" s="30">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
+      <c r="B26" s="31"/>
+      <c r="C26" s="34"/>
+      <c r="D26" s="34" t="s">
+        <v>28</v>
+      </c>
+      <c r="E26" s="34" t="s">
+        <v>29</v>
+      </c>
+      <c r="F26" s="35" t="s">
+        <v>30</v>
+      </c>
+      <c r="G26" s="34"/>
+      <c r="H26" s="36"/>
+      <c r="I26" s="50"/>
+    </row>
+    <row r="27" s="9" customFormat="1" ht="32" customHeight="1" spans="1:9">
+      <c r="A27" s="30">
+        <f t="shared" si="2"/>
+        <v>21</v>
+      </c>
+      <c r="B27" s="31"/>
+      <c r="C27" s="34"/>
+      <c r="D27" s="34" t="s">
         <v>26</v>
       </c>
-      <c r="E21" t="s">
+      <c r="E27" s="39" t="s">
+        <v>45</v>
+      </c>
+      <c r="F27" s="40" t="s">
+        <v>63</v>
+      </c>
+      <c r="G27" s="34"/>
+      <c r="H27" s="36"/>
+      <c r="I27" s="50"/>
+    </row>
+    <row r="28" s="9" customFormat="1" ht="32" customHeight="1" spans="1:9">
+      <c r="A28" s="34">
+        <f t="shared" si="2"/>
+        <v>22</v>
+      </c>
+      <c r="B28" s="31"/>
+      <c r="C28" s="34"/>
+      <c r="D28" t="s">
+        <v>31</v>
+      </c>
+      <c r="E28" t="s">
         <v>32</v>
       </c>
-      <c r="F21" s="40" t="s">
-        <v>65</v>
-      </c>
-      <c r="G21" s="34"/>
-      <c r="H21" s="41" t="s">
-        <v>45</v>
-      </c>
-      <c r="I21" s="50"/>
-    </row>
-    <row r="22" s="9" customFormat="1" ht="44" customHeight="1" spans="1:9">
-      <c r="A22" s="34">
-        <f t="shared" si="0"/>
-        <v>16</v>
-      </c>
-      <c r="B22" s="31"/>
-      <c r="C22" s="34"/>
-      <c r="D22" t="s">
-        <v>26</v>
-      </c>
-      <c r="E22" t="s">
+      <c r="F28" s="37" t="s">
+        <v>33</v>
+      </c>
+      <c r="G28" s="34"/>
+      <c r="H28" s="38" t="s">
+        <v>34</v>
+      </c>
+      <c r="I28" s="50"/>
+    </row>
+    <row r="29" s="9" customFormat="1" ht="32" customHeight="1" spans="1:9">
+      <c r="A29" s="34">
+        <f t="shared" si="2"/>
+        <v>23</v>
+      </c>
+      <c r="B29" s="31"/>
+      <c r="C29" s="34"/>
+      <c r="D29" s="34" t="s">
+        <v>43</v>
+      </c>
+      <c r="E29" s="34" t="s">
         <v>32</v>
       </c>
-      <c r="F22" s="40" t="s">
-        <v>66</v>
-      </c>
-      <c r="G22" s="34"/>
-      <c r="H22" s="41" t="s">
-        <v>45</v>
-      </c>
-      <c r="I22" s="50"/>
-    </row>
-    <row r="23" s="9" customFormat="1" ht="32" customHeight="1" spans="1:9">
-      <c r="A23" s="34">
-        <f t="shared" si="0"/>
-        <v>17</v>
-      </c>
-      <c r="B23" s="31"/>
-      <c r="C23" s="34"/>
-      <c r="D23" t="s">
-        <v>26</v>
-      </c>
-      <c r="E23" t="s">
-        <v>32</v>
-      </c>
-      <c r="F23" s="40" t="s">
-        <v>67</v>
-      </c>
-      <c r="G23" s="34"/>
-      <c r="H23" s="41" t="s">
-        <v>45</v>
-      </c>
-      <c r="I23" s="50"/>
-    </row>
-    <row r="24" s="9" customFormat="1" ht="30" customHeight="1" spans="1:9">
-      <c r="A24" s="34">
-        <f t="shared" si="0"/>
-        <v>18</v>
-      </c>
-      <c r="B24" s="31"/>
-      <c r="C24" s="34"/>
-      <c r="D24" t="s">
-        <v>26</v>
-      </c>
-      <c r="E24" t="s">
-        <v>32</v>
-      </c>
-      <c r="F24" s="40" t="s">
-        <v>68</v>
-      </c>
-      <c r="G24" s="34"/>
-      <c r="H24" s="41" t="s">
-        <v>45</v>
-      </c>
-      <c r="I24" s="50"/>
-    </row>
-    <row r="25" s="9" customFormat="1" ht="29.1" customHeight="1" spans="1:9">
-      <c r="A25" s="30">
-        <f t="shared" ref="A25:A31" si="1">ROW()-6</f>
-        <v>19</v>
-      </c>
-      <c r="B25" s="31"/>
-      <c r="C25" s="34"/>
-      <c r="D25" s="34" t="s">
-        <v>54</v>
-      </c>
-      <c r="E25" s="34"/>
-      <c r="F25" s="35"/>
-      <c r="G25" s="34"/>
-      <c r="H25" s="36"/>
-      <c r="I25" s="50"/>
-    </row>
-    <row r="26" s="10" customFormat="1" ht="29.1" customHeight="1" spans="1:9">
-      <c r="A26" s="44">
-        <f t="shared" si="1"/>
-        <v>20</v>
-      </c>
-      <c r="B26" s="45"/>
-      <c r="C26" s="46">
-        <v>1</v>
-      </c>
-      <c r="D26" s="46" t="s">
-        <v>26</v>
-      </c>
-      <c r="E26" s="46"/>
-      <c r="F26" s="47" t="s">
-        <v>69</v>
-      </c>
-      <c r="G26" s="46"/>
-      <c r="H26" s="48"/>
-      <c r="I26" s="51"/>
-    </row>
-    <row r="27" s="8" customFormat="1" ht="21" customHeight="1" spans="1:8">
-      <c r="A27" s="30">
-        <f t="shared" si="1"/>
-        <v>21</v>
-      </c>
-      <c r="B27" s="31"/>
-      <c r="C27" s="32"/>
-      <c r="D27" s="33" t="s">
-        <v>22</v>
-      </c>
-      <c r="E27" s="33" t="s">
-        <v>23</v>
-      </c>
-      <c r="F27" s="33">
-        <v>1</v>
-      </c>
-      <c r="G27" s="32"/>
-      <c r="H27" s="32"/>
-    </row>
-    <row r="28" s="8" customFormat="1" ht="21" customHeight="1" spans="1:8">
-      <c r="A28" s="30">
-        <f t="shared" si="1"/>
-        <v>22</v>
-      </c>
-      <c r="B28" s="32"/>
-      <c r="C28" s="32"/>
-      <c r="D28" s="33" t="s">
-        <v>22</v>
-      </c>
-      <c r="E28" s="33" t="s">
-        <v>24</v>
-      </c>
-      <c r="F28" s="33">
-        <v>1</v>
-      </c>
-      <c r="G28" s="32"/>
-      <c r="H28" s="32"/>
-    </row>
-    <row r="29" s="8" customFormat="1" ht="21" customHeight="1" spans="1:8">
-      <c r="A29" s="30">
-        <f t="shared" si="1"/>
-        <v>23</v>
-      </c>
-      <c r="B29" s="32"/>
-      <c r="C29" s="32"/>
-      <c r="D29" s="33" t="s">
-        <v>22</v>
-      </c>
-      <c r="E29" s="33" t="s">
-        <v>25</v>
-      </c>
-      <c r="F29" s="33">
-        <v>1</v>
-      </c>
-      <c r="G29" s="32"/>
-      <c r="H29" s="32"/>
-    </row>
-    <row r="30" customFormat="1" ht="15" customHeight="1" spans="1:9">
+      <c r="F29" s="43" t="s">
+        <v>48</v>
+      </c>
+      <c r="G29" s="34"/>
+      <c r="I29" s="50"/>
+    </row>
+    <row r="30" s="9" customFormat="1" ht="44" customHeight="1" spans="1:9">
       <c r="A30" s="34">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>24</v>
       </c>
       <c r="B30" s="31"/>
       <c r="C30" s="34"/>
-      <c r="D30" s="34" t="s">
+      <c r="D30" t="s">
+        <v>26</v>
+      </c>
+      <c r="E30" t="s">
+        <v>32</v>
+      </c>
+      <c r="F30" s="40" t="s">
+        <v>64</v>
+      </c>
+      <c r="G30" s="34"/>
+      <c r="H30" s="41" t="s">
+        <v>36</v>
+      </c>
+      <c r="I30" s="50"/>
+    </row>
+    <row r="31" s="9" customFormat="1" ht="44" customHeight="1" spans="1:9">
+      <c r="A31" s="34">
+        <f t="shared" si="2"/>
+        <v>25</v>
+      </c>
+      <c r="B31" s="31"/>
+      <c r="C31" s="34"/>
+      <c r="D31" t="s">
+        <v>26</v>
+      </c>
+      <c r="E31" t="s">
+        <v>32</v>
+      </c>
+      <c r="F31" s="40" t="s">
+        <v>65</v>
+      </c>
+      <c r="G31" s="34"/>
+      <c r="H31" s="41" t="s">
+        <v>36</v>
+      </c>
+      <c r="I31" s="50"/>
+    </row>
+    <row r="32" s="9" customFormat="1" ht="32" customHeight="1" spans="1:9">
+      <c r="A32" s="34">
+        <f t="shared" si="2"/>
+        <v>26</v>
+      </c>
+      <c r="B32" s="31"/>
+      <c r="C32" s="34"/>
+      <c r="D32" t="s">
+        <v>26</v>
+      </c>
+      <c r="E32" t="s">
+        <v>32</v>
+      </c>
+      <c r="F32" s="40" t="s">
+        <v>66</v>
+      </c>
+      <c r="G32" s="34"/>
+      <c r="H32" s="41" t="s">
+        <v>36</v>
+      </c>
+      <c r="I32" s="50"/>
+    </row>
+    <row r="33" s="9" customFormat="1" ht="30" customHeight="1" spans="1:9">
+      <c r="A33" s="34">
+        <f t="shared" si="2"/>
+        <v>27</v>
+      </c>
+      <c r="B33" s="31"/>
+      <c r="C33" s="34"/>
+      <c r="D33" t="s">
+        <v>26</v>
+      </c>
+      <c r="E33" t="s">
+        <v>32</v>
+      </c>
+      <c r="F33" s="40" t="s">
+        <v>67</v>
+      </c>
+      <c r="G33" s="34"/>
+      <c r="H33" s="41" t="s">
+        <v>36</v>
+      </c>
+      <c r="I33" s="50"/>
+    </row>
+    <row r="34" s="9" customFormat="1" ht="29.1" customHeight="1" spans="1:9">
+      <c r="A34" s="30">
+        <f t="shared" ref="A34:A40" si="3">ROW()-6</f>
+        <v>28</v>
+      </c>
+      <c r="B34" s="31"/>
+      <c r="C34" s="34"/>
+      <c r="D34" s="34" t="s">
+        <v>53</v>
+      </c>
+      <c r="E34" s="34"/>
+      <c r="F34" s="35"/>
+      <c r="G34" s="34"/>
+      <c r="H34" s="36"/>
+      <c r="I34" s="50"/>
+    </row>
+    <row r="35" s="10" customFormat="1" ht="29.1" customHeight="1" spans="1:9">
+      <c r="A35" s="44">
+        <f t="shared" si="3"/>
+        <v>29</v>
+      </c>
+      <c r="B35" s="45"/>
+      <c r="C35" s="46">
+        <v>1</v>
+      </c>
+      <c r="D35" s="46" t="s">
+        <v>26</v>
+      </c>
+      <c r="E35" s="46"/>
+      <c r="F35" s="47" t="s">
+        <v>68</v>
+      </c>
+      <c r="G35" s="46"/>
+      <c r="H35" s="48"/>
+      <c r="I35" s="51"/>
+    </row>
+    <row r="36" s="8" customFormat="1" ht="21" customHeight="1" spans="1:8">
+      <c r="A36" s="30">
+        <f t="shared" si="3"/>
+        <v>30</v>
+      </c>
+      <c r="B36" s="31"/>
+      <c r="C36" s="32"/>
+      <c r="D36" s="33" t="s">
+        <v>22</v>
+      </c>
+      <c r="E36" s="33" t="s">
+        <v>23</v>
+      </c>
+      <c r="F36" s="33">
+        <v>1</v>
+      </c>
+      <c r="G36" s="32"/>
+      <c r="H36" s="32"/>
+    </row>
+    <row r="37" s="8" customFormat="1" ht="21" customHeight="1" spans="1:8">
+      <c r="A37" s="30">
+        <f t="shared" si="3"/>
+        <v>31</v>
+      </c>
+      <c r="B37" s="32"/>
+      <c r="C37" s="32"/>
+      <c r="D37" s="33" t="s">
+        <v>22</v>
+      </c>
+      <c r="E37" s="33" t="s">
+        <v>24</v>
+      </c>
+      <c r="F37" s="33">
+        <v>1</v>
+      </c>
+      <c r="G37" s="32"/>
+      <c r="H37" s="32"/>
+    </row>
+    <row r="38" s="8" customFormat="1" ht="21" customHeight="1" spans="1:8">
+      <c r="A38" s="30">
+        <f t="shared" si="3"/>
+        <v>32</v>
+      </c>
+      <c r="B38" s="32"/>
+      <c r="C38" s="32"/>
+      <c r="D38" s="33" t="s">
+        <v>22</v>
+      </c>
+      <c r="E38" s="33" t="s">
+        <v>25</v>
+      </c>
+      <c r="F38" s="33">
+        <v>1</v>
+      </c>
+      <c r="G38" s="32"/>
+      <c r="H38" s="32"/>
+    </row>
+    <row r="39" customFormat="1" ht="15" customHeight="1" spans="1:9">
+      <c r="A39" s="34">
+        <f t="shared" si="3"/>
+        <v>33</v>
+      </c>
+      <c r="B39" s="31"/>
+      <c r="C39" s="34"/>
+      <c r="D39" s="34" t="s">
         <v>40</v>
       </c>
-      <c r="E30" s="34"/>
-      <c r="F30" s="35" t="s">
+      <c r="E39" s="34"/>
+      <c r="F39" s="35" t="s">
         <v>41</v>
       </c>
-      <c r="G30" s="42"/>
-      <c r="H30" s="42"/>
-      <c r="I30" s="11"/>
-    </row>
-    <row r="31" s="9" customFormat="1" ht="15.95" customHeight="1" spans="1:9">
-      <c r="A31" s="30">
-        <f t="shared" si="1"/>
-        <v>25</v>
-      </c>
-      <c r="B31" s="31" t="s">
+      <c r="G39" s="42"/>
+      <c r="H39" s="42"/>
+      <c r="I39" s="11"/>
+    </row>
+    <row r="40" s="9" customFormat="1" ht="15.95" customHeight="1" spans="1:9">
+      <c r="A40" s="30">
+        <f t="shared" si="3"/>
+        <v>34</v>
+      </c>
+      <c r="B40" s="31" t="s">
         <v>41</v>
       </c>
-      <c r="C31" s="34"/>
-      <c r="D31" s="34"/>
-      <c r="E31" s="34"/>
-      <c r="F31" s="35"/>
-      <c r="I31" s="50"/>
+      <c r="C40" s="34"/>
+      <c r="D40" s="34"/>
+      <c r="E40" s="34"/>
+      <c r="F40" s="35"/>
+      <c r="I40" s="50"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:J31">
+  <autoFilter ref="A1:J40">
     <extLst/>
   </autoFilter>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D15 D16 D30">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D21 D22 D39">
       <formula1>[1]辅助表!#REF!</formula1>
     </dataValidation>
   </dataValidations>
@@ -4140,10 +4424,10 @@
   <sheetData>
     <row r="1" spans="1:39">
       <c r="A1" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>70</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>71</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>6</v>
@@ -4211,10 +4495,10 @@
     </row>
     <row r="2" spans="1:39">
       <c r="A2" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>72</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>73</v>
       </c>
       <c r="AA2" s="2" t="str">
         <f>IF([2]AVG指令文档!D5&lt;&gt;0,[2]AVG指令文档!D5,"")</f>
@@ -4271,7 +4555,7 @@
     </row>
     <row r="3" spans="1:39">
       <c r="A3" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B3" s="5">
         <v>4</v>
